--- a/xlsx/a69_f28_aUPPachuca.xlsx
+++ b/xlsx/a69_f28_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="253">
   <si>
     <t>52273</t>
   </si>
@@ -640,13 +640,175 @@
   </si>
   <si>
     <t>Secretaría Administrativa (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de adquisicion de Bienes y servicios</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Tranferencia</t>
+  </si>
+  <si>
+    <t>Fiscalizacion</t>
+  </si>
+  <si>
+    <t>Porque cumple con los requisitos legales, tecnicos y economicos establecidos en la convocatoria</t>
+  </si>
+  <si>
+    <t>ingresos propios</t>
+  </si>
+  <si>
+    <t>IA-913059981-E2-2020</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-E4-2020</t>
+  </si>
+  <si>
+    <t>IA-913059981-E4-2020</t>
+  </si>
+  <si>
+    <t>IA-913059981-E3-2020</t>
+  </si>
+  <si>
+    <t>Adquisicion de bienes informaticos</t>
+  </si>
+  <si>
+    <t>Adquisicion de material de oficina</t>
+  </si>
+  <si>
+    <t>Adquisicion de material didactico</t>
+  </si>
+  <si>
+    <t>Servicio de contabilidad, auditoria y servicios relacionados</t>
+  </si>
+  <si>
+    <t>Grupo Marpa IT, SA DE CV</t>
+  </si>
+  <si>
+    <t>IMP871216310</t>
+  </si>
+  <si>
+    <t>CABA760206J7</t>
+  </si>
+  <si>
+    <t>Arturo Caballero Briseño</t>
+  </si>
+  <si>
+    <t>Luis Miguel Angel Fernandez Guzman</t>
+  </si>
+  <si>
+    <t>FEGL900414UF3</t>
+  </si>
+  <si>
+    <t>Violeta Martinez Arriaga y S. H.C.P.</t>
+  </si>
+  <si>
+    <t>MAAV780602JE8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arturo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caballero </t>
+  </si>
+  <si>
+    <t>Briseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Miguel Angel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernandez </t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>Violeta Martinez Arriaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violeta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinez </t>
+  </si>
+  <si>
+    <t>Arriaga</t>
+  </si>
+  <si>
+    <t>varias</t>
+  </si>
+  <si>
+    <t>20-32</t>
+  </si>
+  <si>
+    <t>20-33</t>
+  </si>
+  <si>
+    <t>20-35</t>
+  </si>
+  <si>
+    <t>20-34</t>
+  </si>
+  <si>
+    <t>Estatal-Federal</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yMZ57m1a-5-g3oIPXcEhIGOuCYimq6lR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13d6PFyDO0MbRuo8qnAUOkiz8o0Gvf8Gt/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eSyEnkmmZhMlPlr9qqPKHyLLd8TsChXf/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qdtYH7SojA6_lgPE1974ElzcqUori7Qd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SkyQtOkAoGYN1FUZ2Xtc7DfkLvL7tgUf/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZLpNdFiNc6mg0eu2_JCzJjIBgXH-jLoR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ftXM8Qnd_tc6xcRQDepq--QoXBzdepdE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F4aehjLB-egT73C1RJibeIBoW2TXNkoM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1udD6MZeFgMJi-57LQ3dVhbgOFplIj8bP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1x6sOwy-gOv3b3rCRx17kB1Ouz6kDEt14/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YZhVI63eSOvw9lwye0X7MwTKcuQplODS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F0Cp-1Oz6e8tNEfcgMvuqB04l3HGywR3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YGqPLFtSQ3FgxK4mMYgtm4I-pGae6jsq/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u8KL__HkjEFtlA3nkaLf-U61vltUTG_M/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hco08GzJUAeW8-kjmOsNnFbVGSYPhKxI/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iHRiVB_DGSGiMz15VddYcnABLSgUIPcv/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -671,6 +833,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -721,10 +891,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -745,37 +916,29 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1054,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH8"/>
+  <dimension ref="A1:BH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1232,7 @@
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.42578125" customWidth="1"/>
-    <col min="8" max="8" width="46" customWidth="1"/>
+    <col min="8" max="8" width="54" customWidth="1"/>
     <col min="9" max="9" width="32.5703125" customWidth="1"/>
     <col min="10" max="10" width="37.28515625" customWidth="1"/>
     <col min="11" max="11" width="46" customWidth="1"/>
@@ -1077,7 +1240,7 @@
     <col min="13" max="13" width="46" customWidth="1"/>
     <col min="14" max="14" width="73.28515625" customWidth="1"/>
     <col min="15" max="15" width="68.140625" customWidth="1"/>
-    <col min="16" max="16" width="61.28515625" customWidth="1"/>
+    <col min="16" max="16" width="63.5703125" customWidth="1"/>
     <col min="17" max="17" width="37.7109375" customWidth="1"/>
     <col min="18" max="18" width="33.5703125" customWidth="1"/>
     <col min="19" max="19" width="36.85546875" customWidth="1"/>
@@ -1130,38 +1293,38 @@
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:60" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:60" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1528,68 +1691,68 @@
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15"/>
-      <c r="BG6" s="15"/>
-      <c r="BH6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
     </row>
     <row r="7" spans="1:60" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1777,59 +1940,123 @@
       <c r="A8" s="5">
         <v>2020</v>
       </c>
-      <c r="B8" s="13">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="13">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="5"/>
+      <c r="B8" s="11">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="6">
+        <v>44089</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q8" s="13"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
+      <c r="U8" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>44104</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>420215.71</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>487450.22</v>
+      </c>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="5"/>
+      <c r="AG8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>44105</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>44165</v>
+      </c>
+      <c r="AM8" s="13" t="s">
+        <v>239</v>
+      </c>
       <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
+      <c r="AO8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
+      <c r="AX8" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="AY8" s="5"/>
       <c r="AZ8" s="5"/>
       <c r="BA8" s="5"/>
@@ -1840,12 +2067,432 @@
         <v>198</v>
       </c>
       <c r="BF8" s="6">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="BG8" s="6">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="BH8" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44105</v>
+      </c>
+      <c r="C9" s="11">
+        <v>44196</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="I9" s="6">
+        <v>44089</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5">
+        <v>2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>44104</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>341494.41</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>396133.52</v>
+      </c>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK9" s="6">
+        <v>44105</v>
+      </c>
+      <c r="AL9" s="6">
+        <v>44165</v>
+      </c>
+      <c r="AM9" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF9" s="6">
+        <v>44206</v>
+      </c>
+      <c r="BG9" s="6">
+        <v>44206</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44105</v>
+      </c>
+      <c r="C10" s="11">
+        <v>44196</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="6">
+        <v>44140</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5">
+        <v>3</v>
+      </c>
+      <c r="N10" s="5">
+        <v>3</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>44158</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>354110.71</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>410768.43</v>
+      </c>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK10" s="6">
+        <v>44158</v>
+      </c>
+      <c r="AL10" s="6">
+        <v>44183</v>
+      </c>
+      <c r="AM10" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5">
+        <v>3</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF10" s="6">
+        <v>44206</v>
+      </c>
+      <c r="BG10" s="6">
+        <v>44206</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44105</v>
+      </c>
+      <c r="C11" s="11">
+        <v>44196</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="6">
+        <v>44158</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5">
+        <v>4</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>44169</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>129310.34</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>150000</v>
+      </c>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>44170</v>
+      </c>
+      <c r="AL11" s="6">
+        <v>44255</v>
+      </c>
+      <c r="AM11" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5">
+        <v>4</v>
+      </c>
+      <c r="AP11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ11" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF11" s="6">
+        <v>44206</v>
+      </c>
+      <c r="BG11" s="6">
+        <v>44206</v>
+      </c>
+      <c r="BH11" s="4" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1860,24 +2507,41 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D11">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E11">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AP8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AP8:AP11">
       <formula1>Hidden_341</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AW8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AW8:AW11">
       <formula1>Hidden_448</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AX8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AX8:AX11">
       <formula1>Hidden_549</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="AM10" r:id="rId1"/>
+    <hyperlink ref="AM11" r:id="rId2"/>
+    <hyperlink ref="AM8" r:id="rId3"/>
+    <hyperlink ref="AM9" r:id="rId4"/>
+    <hyperlink ref="O9" r:id="rId5"/>
+    <hyperlink ref="O10" r:id="rId6"/>
+    <hyperlink ref="O11" r:id="rId7"/>
+    <hyperlink ref="O8" r:id="rId8"/>
+    <hyperlink ref="P10" r:id="rId9"/>
+    <hyperlink ref="P11" r:id="rId10"/>
+    <hyperlink ref="P8" r:id="rId11"/>
+    <hyperlink ref="H8" r:id="rId12"/>
+    <hyperlink ref="H11" r:id="rId13"/>
+    <hyperlink ref="H9" r:id="rId14"/>
+    <hyperlink ref="H10" r:id="rId15"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1886,7 +2550,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD79"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="A8" sqref="A8:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,6 +2655,38 @@
         <v>188</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>214001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>211001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>217001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10">
+        <v>331002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2002,7 +2698,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A4" sqref="A4:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,22 +2764,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2096,32 +2797,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2134,22 +2840,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2162,22 +2873,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2190,17 +2906,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2211,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="126" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD146"/>
+      <selection activeCell="A8" sqref="A8:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,6 +3000,86 @@
         <v>163</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2290,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD150"/>
+      <selection activeCell="A8" sqref="A8:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,6 +3159,86 @@
         <v>170</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2368,10 +3246,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A8" sqref="A8:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,6 +3317,86 @@
         <v>176</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f28_aUPPachuca.xlsx
+++ b/xlsx/a69_f28_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="395">
   <si>
     <t>52273</t>
   </si>
@@ -1058,17 +1058,191 @@
     <t>Hipervínculo al documento del convenio</t>
   </si>
   <si>
-    <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios , no los generó esta Institución ya que no se realizó ningún procedimiento de contratación en el trimetre.</t>
+    <t>LPN-ESTATAL-01-2021</t>
+  </si>
+  <si>
+    <t>Contrato de servicio telefonico tradicional e internet</t>
+  </si>
+  <si>
+    <t>Grupo Hidalguense de Desarrollo, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>GHD9608306BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Villa </t>
+  </si>
+  <si>
+    <t>La Loma</t>
+  </si>
+  <si>
+    <t>Pachuca de Soto</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Cumple con la propuesta tecnica y economica solicitada en la convocatoria</t>
+  </si>
+  <si>
+    <t>Departamento de Adquisicion de Bienes y Servicios</t>
+  </si>
+  <si>
+    <t>Fiscalizacion</t>
+  </si>
+  <si>
+    <t>21-14</t>
+  </si>
+  <si>
+    <t>M.N.</t>
+  </si>
+  <si>
+    <t>Transferencia</t>
+  </si>
+  <si>
+    <t>Servicio telefonico tradicional e internet para la Universidad</t>
+  </si>
+  <si>
+    <t>Ingresos Propios</t>
   </si>
   <si>
     <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCO ANTONIO </t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>PRESIDENTE DEL COMITÉ DE ADQUISICIONES , ARRENDAMIENTOS Y SERVICIOS DEL SECTOR PUBLICO DE LA UPP</t>
+  </si>
+  <si>
+    <t>JORGE ALFREDO</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>SALAS</t>
+  </si>
+  <si>
+    <t>SECRETARIO EJECUTIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSUE ROMAN </t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MIRELES</t>
+  </si>
+  <si>
+    <t>VOCAL</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>MONTES</t>
+  </si>
+  <si>
+    <t>MONROY</t>
+  </si>
+  <si>
+    <t>DONACIANO</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>CALVA</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>ASESOR SOLICITANTE</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>ASESOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISTINA </t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>MONTAÑO</t>
+  </si>
+  <si>
+    <t>FOGM680705G2A</t>
+  </si>
+  <si>
+    <t>FESJ5710208Y5</t>
+  </si>
+  <si>
+    <t>MAMJ8208266N6</t>
+  </si>
+  <si>
+    <t>MOMJ66044298C5</t>
+  </si>
+  <si>
+    <t>MOCD6005248Q9</t>
+  </si>
+  <si>
+    <t>LUCD811118GM4</t>
+  </si>
+  <si>
+    <t>BARRIOS</t>
+  </si>
+  <si>
+    <t>JIBS760418AW2</t>
+  </si>
+  <si>
+    <t>COMC7107265Y6</t>
+  </si>
+  <si>
+    <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios , no los generó esta Institución.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rGLixdk5Kxf047zH4wgXe7R8udSA8zNU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1opLeB1wDpv4iNGOmNs-vQgWxNRSubmdy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SdJ-YU-c4jHEuULrkAP6KOKmRZlLEUeg/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1D7iOPcT9L2-MmILaOtGQmdgVMtgHhwf2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KELmBKVzqRXZJR_va7aLJ1unSA53uNac/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1088,6 +1262,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1132,10 +1314,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1143,26 +1326,42 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1443,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD3" workbookViewId="0">
-      <selection activeCell="BD8" sqref="BD8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,20 +1656,20 @@
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.5703125" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.28515625" customWidth="1"/>
     <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="85.5703125" customWidth="1"/>
+    <col min="17" max="17" width="82.7109375" customWidth="1"/>
+    <col min="18" max="18" width="89.7109375" customWidth="1"/>
     <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="43.28515625" customWidth="1"/>
     <col min="23" max="23" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="69.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="63.5703125" bestFit="1" customWidth="1"/>
@@ -1489,25 +1688,25 @@
     <col min="38" max="38" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="76.42578125" customWidth="1"/>
+    <col min="42" max="42" width="19.140625" customWidth="1"/>
+    <col min="43" max="43" width="55.85546875" customWidth="1"/>
+    <col min="44" max="44" width="55.28515625" customWidth="1"/>
     <col min="45" max="45" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.28515625" customWidth="1"/>
     <col min="47" max="47" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="44" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="49" customWidth="1"/>
+    <col min="51" max="51" width="46.42578125" customWidth="1"/>
+    <col min="52" max="52" width="46" customWidth="1"/>
+    <col min="53" max="53" width="15.85546875" customWidth="1"/>
     <col min="54" max="54" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.42578125" customWidth="1"/>
+    <col min="56" max="56" width="62" customWidth="1"/>
     <col min="57" max="57" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="91" customWidth="1"/>
     <col min="60" max="60" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="46" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="36.140625" bestFit="1" customWidth="1"/>
@@ -1528,7 +1727,7 @@
     <col min="77" max="77" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="20" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="34.5703125" customWidth="1"/>
+    <col min="80" max="80" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
@@ -1537,38 +1736,38 @@
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:80" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2055,88 +2254,88 @@
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
-      <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
-      <c r="BO6" s="9"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="9"/>
-      <c r="BT6" s="9"/>
-      <c r="BU6" s="9"/>
-      <c r="BV6" s="9"/>
-      <c r="BW6" s="9"/>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="9"/>
-      <c r="BZ6" s="9"/>
-      <c r="CA6" s="9"/>
-      <c r="CB6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="8"/>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="8"/>
+      <c r="BR6" s="8"/>
+      <c r="BS6" s="8"/>
+      <c r="BT6" s="8"/>
+      <c r="BU6" s="8"/>
+      <c r="BV6" s="8"/>
+      <c r="BW6" s="8"/>
+      <c r="BX6" s="8"/>
+      <c r="BY6" s="8"/>
+      <c r="BZ6" s="8"/>
+      <c r="CA6" s="8"/>
+      <c r="CB6" s="8"/>
     </row>
     <row r="7" spans="1:80" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2380,100 +2579,196 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:80" s="5" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:80" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
-      <c r="BL8" s="3"/>
-      <c r="BM8" s="3"/>
-      <c r="BN8" s="3"/>
-      <c r="BO8" s="3"/>
-      <c r="BP8" s="3"/>
-      <c r="BQ8" s="3"/>
-      <c r="BR8" s="3"/>
-      <c r="BS8" s="3"/>
-      <c r="BT8" s="3"/>
-      <c r="BU8" s="3"/>
-      <c r="BV8" s="3"/>
-      <c r="BW8" s="3"/>
-      <c r="BX8" s="3"/>
-      <c r="BY8" s="7" t="s">
+      <c r="B8" s="3">
+        <v>44287</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44377</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="J8" s="5">
+        <v>44330</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="BZ8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="CA8" s="4">
-        <v>44298</v>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>44333</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>79</v>
+      </c>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>42088</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>44340</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>44348</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>44561</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>361616.36</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>419474.98</v>
+      </c>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="BD8" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>44348</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>44561</v>
+      </c>
+      <c r="BG8" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK8" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="BL8" s="4"/>
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="4"/>
+      <c r="BR8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="BS8" s="4"/>
+      <c r="BT8" s="4"/>
+      <c r="BU8" s="4"/>
+      <c r="BV8" s="4"/>
+      <c r="BW8" s="4"/>
+      <c r="BX8" s="4"/>
+      <c r="BY8" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BZ8" s="3">
+        <v>44386</v>
+      </c>
+      <c r="CA8" s="3">
+        <v>44386</v>
       </c>
       <c r="CB8" s="6" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -2487,36 +2782,43 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D124">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E124">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F124">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
       <formula1>Hidden_35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X124">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8">
       <formula1>Hidden_423</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8:AB124">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8">
       <formula1>Hidden_527</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8:AI124">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8">
       <formula1>Hidden_634</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8:BJ124">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8">
       <formula1>Hidden_761</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8:BQ124">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8">
       <formula1>Hidden_868</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR124">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8">
       <formula1>Hidden_969</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="P8" r:id="rId1"/>
+    <hyperlink ref="I8" r:id="rId2"/>
+    <hyperlink ref="Q8" r:id="rId3"/>
+    <hyperlink ref="BG8" r:id="rId4"/>
+    <hyperlink ref="R8" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2545,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD45"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,7 +2859,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2613,6 +2915,20 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2622,10 +2938,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD89"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,7 +2950,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2690,6 +3006,20 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2699,10 +3029,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,7 +3041,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" customWidth="1"/>
     <col min="6" max="6" width="78.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2767,6 +3097,20 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2776,10 +3120,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD28"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,7 +3133,7 @@
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2844,6 +3188,166 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2853,10 +3357,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD26"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,6 +3387,14 @@
         <v>326</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>314001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2892,9 +3404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/xlsx/a69_f28_aUPPachuca.xlsx
+++ b/xlsx/a69_f28_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="337">
   <si>
     <t>52273</t>
   </si>
@@ -1058,184 +1058,10 @@
     <t>Hipervínculo al documento del convenio</t>
   </si>
   <si>
-    <t>LPN-ESTATAL-01-2021</t>
-  </si>
-  <si>
-    <t>Contrato de servicio telefonico tradicional e internet</t>
-  </si>
-  <si>
-    <t>Grupo Hidalguense de Desarrollo, S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>GHD9608306BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Villa </t>
-  </si>
-  <si>
-    <t>La Loma</t>
-  </si>
-  <si>
-    <t>Pachuca de Soto</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Cumple con la propuesta tecnica y economica solicitada en la convocatoria</t>
-  </si>
-  <si>
-    <t>Departamento de Adquisicion de Bienes y Servicios</t>
-  </si>
-  <si>
-    <t>Fiscalizacion</t>
-  </si>
-  <si>
-    <t>21-14</t>
-  </si>
-  <si>
-    <t>M.N.</t>
-  </si>
-  <si>
-    <t>Transferencia</t>
-  </si>
-  <si>
-    <t>Servicio telefonico tradicional e internet para la Universidad</t>
-  </si>
-  <si>
-    <t>Ingresos Propios</t>
+    <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios , no los generó esta Institución ya que no se realizó ningún procedimiento de contratación en el trimetre.</t>
   </si>
   <si>
     <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCO ANTONIO </t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>PRESIDENTE DEL COMITÉ DE ADQUISICIONES , ARRENDAMIENTOS Y SERVICIOS DEL SECTOR PUBLICO DE LA UPP</t>
-  </si>
-  <si>
-    <t>JORGE ALFREDO</t>
-  </si>
-  <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t>SALAS</t>
-  </si>
-  <si>
-    <t>SECRETARIO EJECUTIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSUE ROMAN </t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MIRELES</t>
-  </si>
-  <si>
-    <t>VOCAL</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL</t>
-  </si>
-  <si>
-    <t>MONTES</t>
-  </si>
-  <si>
-    <t>MONROY</t>
-  </si>
-  <si>
-    <t>DONACIANO</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>CALVA</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>ASESOR SOLICITANTE</t>
-  </si>
-  <si>
-    <t>SALVADOR</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>ASESOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISTINA </t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>MONTAÑO</t>
-  </si>
-  <si>
-    <t>FOGM680705G2A</t>
-  </si>
-  <si>
-    <t>FESJ5710208Y5</t>
-  </si>
-  <si>
-    <t>MAMJ8208266N6</t>
-  </si>
-  <si>
-    <t>MOMJ66044298C5</t>
-  </si>
-  <si>
-    <t>MOCD6005248Q9</t>
-  </si>
-  <si>
-    <t>LUCD811118GM4</t>
-  </si>
-  <si>
-    <t>BARRIOS</t>
-  </si>
-  <si>
-    <t>JIBS760418AW2</t>
-  </si>
-  <si>
-    <t>COMC7107265Y6</t>
-  </si>
-  <si>
-    <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios , no los generó esta Institución.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rGLixdk5Kxf047zH4wgXe7R8udSA8zNU/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1opLeB1wDpv4iNGOmNs-vQgWxNRSubmdy/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1SdJ-YU-c4jHEuULrkAP6KOKmRZlLEUeg/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1D7iOPcT9L2-MmILaOtGQmdgVMtgHhwf2/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1KELmBKVzqRXZJR_va7aLJ1unSA53uNac/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1255,18 +1081,15 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1314,11 +1137,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1326,18 +1148,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1349,19 +1172,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1642,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="BY6" workbookViewId="0">
+      <selection activeCell="BZ8" sqref="BZ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,20 +1468,20 @@
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.5703125" customWidth="1"/>
+    <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.28515625" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="85.5703125" customWidth="1"/>
-    <col min="17" max="17" width="82.7109375" customWidth="1"/>
-    <col min="18" max="18" width="89.7109375" customWidth="1"/>
+    <col min="16" max="16" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43.28515625" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="69.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="63.5703125" bestFit="1" customWidth="1"/>
@@ -1688,25 +1500,25 @@
     <col min="38" max="38" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="76.42578125" customWidth="1"/>
-    <col min="42" max="42" width="19.140625" customWidth="1"/>
-    <col min="43" max="43" width="55.85546875" customWidth="1"/>
-    <col min="44" max="44" width="55.28515625" customWidth="1"/>
+    <col min="41" max="41" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.28515625" customWidth="1"/>
+    <col min="46" max="46" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="49" customWidth="1"/>
-    <col min="51" max="51" width="46.42578125" customWidth="1"/>
-    <col min="52" max="52" width="46" customWidth="1"/>
-    <col min="53" max="53" width="15.85546875" customWidth="1"/>
+    <col min="50" max="50" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="44" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.42578125" customWidth="1"/>
-    <col min="56" max="56" width="62" customWidth="1"/>
+    <col min="55" max="55" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="91" customWidth="1"/>
+    <col min="59" max="59" width="68.28515625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="46" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="36.140625" bestFit="1" customWidth="1"/>
@@ -1727,7 +1539,7 @@
     <col min="77" max="77" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="20" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="58" customWidth="1"/>
+    <col min="80" max="80" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
@@ -1736,38 +1548,38 @@
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:80" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:80" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2254,88 +2066,88 @@
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="8"/>
-      <c r="BQ6" s="8"/>
-      <c r="BR6" s="8"/>
-      <c r="BS6" s="8"/>
-      <c r="BT6" s="8"/>
-      <c r="BU6" s="8"/>
-      <c r="BV6" s="8"/>
-      <c r="BW6" s="8"/>
-      <c r="BX6" s="8"/>
-      <c r="BY6" s="8"/>
-      <c r="BZ6" s="8"/>
-      <c r="CA6" s="8"/>
-      <c r="CB6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="9"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
+      <c r="CA6" s="9"/>
+      <c r="CB6" s="9"/>
     </row>
     <row r="7" spans="1:80" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2579,196 +2391,100 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:80" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:80" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="3">
-        <v>44287</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="B8" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="BZ8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="CA8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="CB8" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="J8" s="5">
-        <v>44330</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>44333</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>79</v>
-      </c>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>42088</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>44340</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>44348</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>44561</v>
-      </c>
-      <c r="AW8" s="4">
-        <v>361616.36</v>
-      </c>
-      <c r="AX8" s="4">
-        <v>419474.98</v>
-      </c>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="BD8" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="BE8" s="3">
-        <v>44348</v>
-      </c>
-      <c r="BF8" s="3">
-        <v>44561</v>
-      </c>
-      <c r="BG8" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4">
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK8" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="BL8" s="4"/>
-      <c r="BM8" s="4"/>
-      <c r="BN8" s="4"/>
-      <c r="BO8" s="4"/>
-      <c r="BP8" s="4"/>
-      <c r="BQ8" s="4"/>
-      <c r="BR8" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="BS8" s="4"/>
-      <c r="BT8" s="4"/>
-      <c r="BU8" s="4"/>
-      <c r="BV8" s="4"/>
-      <c r="BW8" s="4"/>
-      <c r="BX8" s="4"/>
-      <c r="BY8" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="BZ8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="CA8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="CB8" s="6" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -2810,15 +2526,8 @@
       <formula1>Hidden_969</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="P8" r:id="rId1"/>
-    <hyperlink ref="I8" r:id="rId2"/>
-    <hyperlink ref="Q8" r:id="rId3"/>
-    <hyperlink ref="BG8" r:id="rId4"/>
-    <hyperlink ref="R8" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2847,11 +2556,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2859,7 +2566,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2915,20 +2622,6 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2938,11 +2631,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2950,7 +2641,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3006,20 +2697,6 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3029,11 +2706,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3041,7 +2716,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="78.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3097,20 +2772,6 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3120,11 +2781,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3133,7 +2792,7 @@
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3188,166 +2847,6 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>1</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3357,11 +2856,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3385,14 +2882,6 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12">
-        <v>314001</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f28_aUPPachuca.xlsx
+++ b/xlsx/a69_f28_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\UPP Solventación de observaciones Vo. Bo. 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="382">
   <si>
     <t>52273</t>
   </si>
@@ -1061,7 +1061,142 @@
     <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios , no los generó esta Institución ya que no se realizó ningún procedimiento de contratación en el trimetre.</t>
   </si>
   <si>
-    <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
+    <t>IA-ESTATAL-01-2021</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-02-2021</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-03-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material didactico </t>
+  </si>
+  <si>
+    <t>Material de oficina</t>
+  </si>
+  <si>
+    <t>Auditoria externa ejercicio fiscal 2021</t>
+  </si>
+  <si>
+    <t>Microvisa MG SA de CV</t>
+  </si>
+  <si>
+    <t>Hipolito Callejas Lopez</t>
+  </si>
+  <si>
+    <t>Hipolito</t>
+  </si>
+  <si>
+    <t>Callejas</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>MMG990204RW7</t>
+  </si>
+  <si>
+    <t>CALH730813V42</t>
+  </si>
+  <si>
+    <t>Pirules</t>
+  </si>
+  <si>
+    <t>El Tezontle</t>
+  </si>
+  <si>
+    <t>Pachuca de Soto</t>
+  </si>
+  <si>
+    <t>Ingreso Propio</t>
+  </si>
+  <si>
+    <t>Transferencia</t>
+  </si>
+  <si>
+    <t>Material Didactico</t>
+  </si>
+  <si>
+    <t>Servicio de auditoria esterna 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hipolito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callejas </t>
+  </si>
+  <si>
+    <t>Valle soleado</t>
+  </si>
+  <si>
+    <t>Valle Dorado</t>
+  </si>
+  <si>
+    <t>Mineral de la reforma</t>
+  </si>
+  <si>
+    <t>Secretaria academica</t>
+  </si>
+  <si>
+    <t>Departamento de Adquisiciones, bienes  y servicios</t>
+  </si>
+  <si>
+    <t>Fiscalizacion</t>
+  </si>
+  <si>
+    <t>Fiscalzacion</t>
+  </si>
+  <si>
+    <t>Cumple con los requsitos legales, economicos y tecnicos de las bases</t>
+  </si>
+  <si>
+    <t>21-46</t>
+  </si>
+  <si>
+    <t>21-59</t>
+  </si>
+  <si>
+    <t>21-60</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1V1PAlOQJy5jYs2kG_XaBbwDj6CJ1PAgS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hpzbEP3Cszgg5a8bgrdWb-L2tTELNuZe/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1p7C21DPUeQFe1dhbMjFkfhkRBGIJqcwG/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AzpRvm1d2RZvs7hDfgqf91g0fs4Cr2CP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Yccyoyty-Pep7aMqLIj02QJv67PSF07N/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13RnamcUWzXF1fPbLh2j6y3Kao9iKL5zP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KB-giOrgHWmOQmGhroQrW86_vx-QyP3m/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DcuVPXm3aK4_yyjCQ_W1WtthNkg9chLd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ldTdo_-MV7Cy4ZRWXxtPVvmq66u7SpEw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tF45ErxTW3ijffAha5fht-GSwkVd2d11/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tlAZ5-3Gw5wfAwVj6ry-WDU84KdA4JuX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14NC5DzfZ3ri2bzPK5AXITdbr7bYn3qij/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Departamento de adqusicion de bienes y servicios(UPP)</t>
   </si>
 </sst>
 </file>
@@ -1081,21 +1216,24 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,8 +1250,14 @@
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1136,11 +1280,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1157,10 +1326,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1173,7 +1358,8 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1452,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB8"/>
+  <dimension ref="A1:CB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY6" workbookViewId="0">
-      <selection activeCell="BZ8" sqref="BZ8"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,20 +1649,20 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="91.85546875" style="11" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="91.140625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="94.28515625" style="11" customWidth="1"/>
     <col min="18" max="18" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -1500,10 +1686,10 @@
     <col min="38" max="38" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="68" customWidth="1"/>
+    <col min="42" max="42" width="35" customWidth="1"/>
+    <col min="43" max="43" width="58.28515625" customWidth="1"/>
+    <col min="44" max="44" width="52.7109375" customWidth="1"/>
     <col min="45" max="45" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="48.28515625" bestFit="1" customWidth="1"/>
@@ -1514,11 +1700,11 @@
     <col min="52" max="52" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.7109375" customWidth="1"/>
+    <col min="56" max="56" width="22.42578125" customWidth="1"/>
     <col min="57" max="57" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="98" style="11" customWidth="1"/>
     <col min="60" max="60" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="46" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="36.140625" bestFit="1" customWidth="1"/>
@@ -1539,7 +1725,7 @@
     <col min="77" max="77" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="20" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="39" customWidth="1"/>
+    <col min="80" max="80" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
@@ -1548,38 +1734,38 @@
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:80" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:80" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1606,7 +1792,7 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
@@ -1627,10 +1813,10 @@
       <c r="O4" t="s">
         <v>10</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R4" t="s">
@@ -1756,7 +1942,7 @@
       <c r="BF4" t="s">
         <v>8</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BG4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="BH4" t="s">
@@ -1848,7 +2034,7 @@
       <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="J5" t="s">
@@ -1869,10 +2055,10 @@
       <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="11" t="s">
         <v>32</v>
       </c>
       <c r="R5" t="s">
@@ -1998,7 +2184,7 @@
       <c r="BF5" t="s">
         <v>73</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BG5" s="11" t="s">
         <v>74</v>
       </c>
       <c r="BH5" t="s">
@@ -2066,88 +2252,88 @@
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
-      <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
-      <c r="BO6" s="9"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="9"/>
-      <c r="BT6" s="9"/>
-      <c r="BU6" s="9"/>
-      <c r="BV6" s="9"/>
-      <c r="BW6" s="9"/>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="9"/>
-      <c r="BZ6" s="9"/>
-      <c r="CA6" s="9"/>
-      <c r="CB6" s="9"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+      <c r="BO6" s="15"/>
+      <c r="BP6" s="15"/>
+      <c r="BQ6" s="15"/>
+      <c r="BR6" s="15"/>
+      <c r="BS6" s="15"/>
+      <c r="BT6" s="15"/>
+      <c r="BU6" s="15"/>
+      <c r="BV6" s="15"/>
+      <c r="BW6" s="15"/>
+      <c r="BX6" s="15"/>
+      <c r="BY6" s="15"/>
+      <c r="BZ6" s="15"/>
+      <c r="CA6" s="15"/>
+      <c r="CB6" s="15"/>
     </row>
     <row r="7" spans="1:80" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2174,7 +2360,7 @@
       <c r="H7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="13" t="s">
         <v>105</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -2195,10 +2381,10 @@
       <c r="O7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="13" t="s">
         <v>113</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -2324,7 +2510,7 @@
       <c r="BF7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BG7" s="2" t="s">
+      <c r="BG7" s="13" t="s">
         <v>155</v>
       </c>
       <c r="BH7" s="2" t="s">
@@ -2391,99 +2577,555 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:80" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="4">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+        <v>44561</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J8" s="4">
+        <v>44518</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="P8" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>372</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
+      <c r="V8" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>162</v>
+      </c>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
+      <c r="AB8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
+      <c r="AE8" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
+      <c r="AG8" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>42084</v>
+      </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AO8" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>44473</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>44473</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>44479</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>129782.21</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>150547.37</v>
+      </c>
       <c r="AY8" s="3"/>
       <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
+      <c r="BA8" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
+      <c r="BC8" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="BE8" s="4">
+        <v>44473</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>44473</v>
+      </c>
+      <c r="BG8" s="12" t="s">
+        <v>369</v>
+      </c>
       <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
+      <c r="BI8" s="3">
+        <v>2</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK8" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3"/>
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
       <c r="BQ8" s="3"/>
-      <c r="BR8" s="3"/>
+      <c r="BR8" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="BS8" s="3"/>
       <c r="BT8" s="3"/>
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
       <c r="BW8" s="3"/>
       <c r="BX8" s="3"/>
-      <c r="BY8" s="7" t="s">
-        <v>336</v>
+      <c r="BY8" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="BZ8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="CA8" s="4">
-        <v>44480</v>
-      </c>
-      <c r="CB8" s="6" t="s">
+        <v>44571</v>
+      </c>
+      <c r="CB8" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="J9" s="4">
+        <v>44518</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>162</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>42084</v>
+      </c>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>44473</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>44473</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>44479</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>81489.77</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>94528.13</v>
+      </c>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="BE9" s="4">
+        <v>44473</v>
+      </c>
+      <c r="BF9" s="4">
+        <v>44473</v>
+      </c>
+      <c r="BG9" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK9" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="BZ9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="CA9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="CB9" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="J10" s="4">
+        <v>44524</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>246</v>
+      </c>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>42183</v>
+      </c>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>44524</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>44524</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>44635</v>
+      </c>
+      <c r="AW10" s="3">
+        <v>129310.34</v>
+      </c>
+      <c r="AX10" s="3">
+        <v>150000</v>
+      </c>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE10" s="4">
+        <v>44524</v>
+      </c>
+      <c r="BF10" s="4">
+        <v>44635</v>
+      </c>
+      <c r="BG10" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3">
+        <v>3</v>
+      </c>
+      <c r="BJ10" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK10" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="BZ10" s="4">
+        <v>44571</v>
+      </c>
+      <c r="CA10" s="4">
+        <v>44571</v>
+      </c>
+      <c r="CB10" s="10" t="s">
         <v>335</v>
       </c>
     </row>
@@ -2498,36 +3140,50 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D10">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E10">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F10">
       <formula1>Hidden_35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X10">
       <formula1>Hidden_423</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8:AB10">
       <formula1>Hidden_527</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8:AI10">
       <formula1>Hidden_634</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8:BJ10">
       <formula1>Hidden_761</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8:BQ10">
       <formula1>Hidden_868</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR10">
       <formula1>Hidden_969</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="BG8" r:id="rId1"/>
+    <hyperlink ref="I8" r:id="rId2"/>
+    <hyperlink ref="P8" r:id="rId3"/>
+    <hyperlink ref="Q8" r:id="rId4"/>
+    <hyperlink ref="BG9" r:id="rId5"/>
+    <hyperlink ref="I9" r:id="rId6"/>
+    <hyperlink ref="P9" r:id="rId7"/>
+    <hyperlink ref="Q9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="BG10" r:id="rId10"/>
+    <hyperlink ref="P10" r:id="rId11"/>
+    <hyperlink ref="Q10" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -2556,9 +3212,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2566,7 +3224,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2605,23 +3263,57 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2631,9 +3323,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2699,6 +3393,40 @@
         <v>308</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2708,7 +3436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2783,7 +3513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2856,9 +3588,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD146"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2884,6 +3618,30 @@
         <v>326</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>211001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>217001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>331002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2893,7 +3651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/xlsx/a69_f28_aUPPachuca.xlsx
+++ b/xlsx/a69_f28_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\UPP Solventación de observaciones Vo. Bo. 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="337">
   <si>
     <t>52273</t>
   </si>
@@ -1061,142 +1056,7 @@
     <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios , no los generó esta Institución ya que no se realizó ningún procedimiento de contratación en el trimetre.</t>
   </si>
   <si>
-    <t>IA-ESTATAL-01-2021</t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-02-2021</t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-03-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material didactico </t>
-  </si>
-  <si>
-    <t>Material de oficina</t>
-  </si>
-  <si>
-    <t>Auditoria externa ejercicio fiscal 2021</t>
-  </si>
-  <si>
-    <t>Microvisa MG SA de CV</t>
-  </si>
-  <si>
-    <t>Hipolito Callejas Lopez</t>
-  </si>
-  <si>
-    <t>Hipolito</t>
-  </si>
-  <si>
-    <t>Callejas</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>MMG990204RW7</t>
-  </si>
-  <si>
-    <t>CALH730813V42</t>
-  </si>
-  <si>
-    <t>Pirules</t>
-  </si>
-  <si>
-    <t>El Tezontle</t>
-  </si>
-  <si>
-    <t>Pachuca de Soto</t>
-  </si>
-  <si>
-    <t>Ingreso Propio</t>
-  </si>
-  <si>
-    <t>Transferencia</t>
-  </si>
-  <si>
-    <t>Material Didactico</t>
-  </si>
-  <si>
-    <t>Servicio de auditoria esterna 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hipolito </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callejas </t>
-  </si>
-  <si>
-    <t>Valle soleado</t>
-  </si>
-  <si>
-    <t>Valle Dorado</t>
-  </si>
-  <si>
-    <t>Mineral de la reforma</t>
-  </si>
-  <si>
-    <t>Secretaria academica</t>
-  </si>
-  <si>
-    <t>Departamento de Adquisiciones, bienes  y servicios</t>
-  </si>
-  <si>
-    <t>Fiscalizacion</t>
-  </si>
-  <si>
-    <t>Fiscalzacion</t>
-  </si>
-  <si>
-    <t>Cumple con los requsitos legales, economicos y tecnicos de las bases</t>
-  </si>
-  <si>
-    <t>21-46</t>
-  </si>
-  <si>
-    <t>21-59</t>
-  </si>
-  <si>
-    <t>21-60</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1V1PAlOQJy5jYs2kG_XaBbwDj6CJ1PAgS/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1hpzbEP3Cszgg5a8bgrdWb-L2tTELNuZe/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1p7C21DPUeQFe1dhbMjFkfhkRBGIJqcwG/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1AzpRvm1d2RZvs7hDfgqf91g0fs4Cr2CP/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Yccyoyty-Pep7aMqLIj02QJv67PSF07N/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13RnamcUWzXF1fPbLh2j6y3Kao9iKL5zP/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1KB-giOrgHWmOQmGhroQrW86_vx-QyP3m/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DcuVPXm3aK4_yyjCQ_W1WtthNkg9chLd/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ldTdo_-MV7Cy4ZRWXxtPVvmq66u7SpEw/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tF45ErxTW3ijffAha5fht-GSwkVd2d11/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tlAZ5-3Gw5wfAwVj6ry-WDU84KdA4JuX/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/14NC5DzfZ3ri2bzPK5AXITdbr7bYn3qij/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Departamento de adqusicion de bienes y servicios(UPP)</t>
+    <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
   </si>
 </sst>
 </file>
@@ -1225,15 +1085,14 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1250,14 +1109,8 @@
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1280,36 +1133,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1326,40 +1154,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1630,7 +1435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1638,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB10"/>
+  <dimension ref="A1:CB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="BY2" workbookViewId="0">
+      <selection activeCell="BY12" sqref="BY12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,20 +1454,20 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="91.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="91.140625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="94.28515625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -1686,10 +1491,10 @@
     <col min="38" max="38" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="68" customWidth="1"/>
-    <col min="42" max="42" width="35" customWidth="1"/>
-    <col min="43" max="43" width="58.28515625" customWidth="1"/>
-    <col min="44" max="44" width="52.7109375" customWidth="1"/>
+    <col min="41" max="41" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="48.28515625" bestFit="1" customWidth="1"/>
@@ -1700,11 +1505,11 @@
     <col min="52" max="52" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.7109375" customWidth="1"/>
-    <col min="56" max="56" width="22.42578125" customWidth="1"/>
+    <col min="55" max="55" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="98" style="11" customWidth="1"/>
+    <col min="59" max="59" width="68.28515625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="46" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="36.140625" bestFit="1" customWidth="1"/>
@@ -1725,7 +1530,7 @@
     <col min="77" max="77" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="20" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="43.140625" customWidth="1"/>
+    <col min="80" max="80" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
@@ -1734,38 +1539,38 @@
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:80" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1792,7 +1597,7 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
@@ -1813,10 +1618,10 @@
       <c r="O4" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" t="s">
         <v>11</v>
       </c>
       <c r="R4" t="s">
@@ -1942,7 +1747,7 @@
       <c r="BF4" t="s">
         <v>8</v>
       </c>
-      <c r="BG4" s="11" t="s">
+      <c r="BG4" t="s">
         <v>11</v>
       </c>
       <c r="BH4" t="s">
@@ -2034,7 +1839,7 @@
       <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
       <c r="J5" t="s">
@@ -2055,10 +1860,10 @@
       <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" t="s">
         <v>32</v>
       </c>
       <c r="R5" t="s">
@@ -2184,7 +1989,7 @@
       <c r="BF5" t="s">
         <v>73</v>
       </c>
-      <c r="BG5" s="11" t="s">
+      <c r="BG5" t="s">
         <v>74</v>
       </c>
       <c r="BH5" t="s">
@@ -2252,88 +2057,88 @@
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15"/>
-      <c r="BG6" s="15"/>
-      <c r="BH6" s="15"/>
-      <c r="BI6" s="15"/>
-      <c r="BJ6" s="15"/>
-      <c r="BK6" s="15"/>
-      <c r="BL6" s="15"/>
-      <c r="BM6" s="15"/>
-      <c r="BN6" s="15"/>
-      <c r="BO6" s="15"/>
-      <c r="BP6" s="15"/>
-      <c r="BQ6" s="15"/>
-      <c r="BR6" s="15"/>
-      <c r="BS6" s="15"/>
-      <c r="BT6" s="15"/>
-      <c r="BU6" s="15"/>
-      <c r="BV6" s="15"/>
-      <c r="BW6" s="15"/>
-      <c r="BX6" s="15"/>
-      <c r="BY6" s="15"/>
-      <c r="BZ6" s="15"/>
-      <c r="CA6" s="15"/>
-      <c r="CB6" s="15"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="8"/>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="8"/>
+      <c r="BR6" s="8"/>
+      <c r="BS6" s="8"/>
+      <c r="BT6" s="8"/>
+      <c r="BU6" s="8"/>
+      <c r="BV6" s="8"/>
+      <c r="BW6" s="8"/>
+      <c r="BX6" s="8"/>
+      <c r="BY6" s="8"/>
+      <c r="BZ6" s="8"/>
+      <c r="CA6" s="8"/>
+      <c r="CB6" s="8"/>
     </row>
     <row r="7" spans="1:80" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2360,7 +2165,7 @@
       <c r="H7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="2" t="s">
         <v>105</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -2381,10 +2186,10 @@
       <c r="O7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="2" t="s">
         <v>113</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -2510,7 +2315,7 @@
       <c r="BF7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BG7" s="13" t="s">
+      <c r="BG7" s="2" t="s">
         <v>155</v>
       </c>
       <c r="BH7" s="2" t="s">
@@ -2579,553 +2384,97 @@
     </row>
     <row r="8" spans="1:80" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="J8" s="4">
-        <v>44518</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
+        <v>44651</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>372</v>
-      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>162</v>
-      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>350</v>
-      </c>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="3" t="s">
-        <v>351</v>
-      </c>
+      <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
-      <c r="AG8" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>13</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>42084</v>
-      </c>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="AP8" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="AS8" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="AT8" s="4">
-        <v>44473</v>
-      </c>
-      <c r="AU8" s="4">
-        <v>44473</v>
-      </c>
-      <c r="AV8" s="4">
-        <v>44479</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>129782.21</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>150547.37</v>
-      </c>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
       <c r="AZ8" s="3"/>
-      <c r="BA8" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
-      <c r="BC8" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD8" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="BE8" s="4">
-        <v>44473</v>
-      </c>
-      <c r="BF8" s="4">
-        <v>44473</v>
-      </c>
-      <c r="BG8" s="12" t="s">
-        <v>369</v>
-      </c>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
       <c r="BH8" s="3"/>
-      <c r="BI8" s="3">
-        <v>2</v>
-      </c>
-      <c r="BJ8" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK8" s="3" t="s">
-        <v>352</v>
-      </c>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3"/>
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
       <c r="BQ8" s="3"/>
-      <c r="BR8" s="3" t="s">
-        <v>290</v>
-      </c>
+      <c r="BR8" s="3"/>
       <c r="BS8" s="3"/>
       <c r="BT8" s="3"/>
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
       <c r="BW8" s="3"/>
       <c r="BX8" s="3"/>
-      <c r="BY8" s="3" t="s">
-        <v>381</v>
+      <c r="BY8" s="10" t="s">
+        <v>336</v>
       </c>
       <c r="BZ8" s="4">
-        <v>44571</v>
+        <v>44777</v>
       </c>
       <c r="CA8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="CB8" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:80" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="J9" s="4">
-        <v>44518</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>162</v>
-      </c>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>13</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>42084</v>
-      </c>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="AS9" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="AT9" s="4">
-        <v>44473</v>
-      </c>
-      <c r="AU9" s="4">
-        <v>44473</v>
-      </c>
-      <c r="AV9" s="4">
-        <v>44479</v>
-      </c>
-      <c r="AW9" s="3">
-        <v>81489.77</v>
-      </c>
-      <c r="AX9" s="3">
-        <v>94528.13</v>
-      </c>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD9" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="BE9" s="4">
-        <v>44473</v>
-      </c>
-      <c r="BF9" s="4">
-        <v>44473</v>
-      </c>
-      <c r="BG9" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ9" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK9" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="BL9" s="3"/>
-      <c r="BM9" s="3"/>
-      <c r="BN9" s="3"/>
-      <c r="BO9" s="3"/>
-      <c r="BP9" s="3"/>
-      <c r="BQ9" s="3"/>
-      <c r="BR9" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BS9" s="3"/>
-      <c r="BT9" s="3"/>
-      <c r="BU9" s="3"/>
-      <c r="BV9" s="3"/>
-      <c r="BW9" s="3"/>
-      <c r="BX9" s="3"/>
-      <c r="BY9" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="BZ9" s="4">
-        <v>44571</v>
-      </c>
-      <c r="CA9" s="4">
-        <v>44571</v>
-      </c>
-      <c r="CB9" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:80" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="J10" s="4">
-        <v>44524</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>246</v>
-      </c>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>13</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>42183</v>
-      </c>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="AP10" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="AQ10" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="AR10" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="AS10" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="AT10" s="4">
-        <v>44524</v>
-      </c>
-      <c r="AU10" s="4">
-        <v>44524</v>
-      </c>
-      <c r="AV10" s="4">
-        <v>44635</v>
-      </c>
-      <c r="AW10" s="3">
-        <v>129310.34</v>
-      </c>
-      <c r="AX10" s="3">
-        <v>150000</v>
-      </c>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD10" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="BE10" s="4">
-        <v>44524</v>
-      </c>
-      <c r="BF10" s="4">
-        <v>44635</v>
-      </c>
-      <c r="BG10" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3">
-        <v>3</v>
-      </c>
-      <c r="BJ10" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK10" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
-      <c r="BP10" s="3"/>
-      <c r="BQ10" s="3"/>
-      <c r="BR10" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BS10" s="3"/>
-      <c r="BT10" s="3"/>
-      <c r="BU10" s="3"/>
-      <c r="BV10" s="3"/>
-      <c r="BW10" s="3"/>
-      <c r="BX10" s="3"/>
-      <c r="BY10" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="BZ10" s="4">
-        <v>44571</v>
-      </c>
-      <c r="CA10" s="4">
-        <v>44571</v>
-      </c>
-      <c r="CB10" s="10" t="s">
+        <v>44777</v>
+      </c>
+      <c r="CB8" s="6" t="s">
         <v>335</v>
       </c>
     </row>
@@ -3140,50 +2489,35 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D85">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E85">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F85">
       <formula1>Hidden_35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X85">
       <formula1>Hidden_423</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8:AB10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8:AB85">
       <formula1>Hidden_527</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8:AI10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8:AI85">
       <formula1>Hidden_634</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8:BJ10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8:BJ85">
       <formula1>Hidden_761</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8:BQ10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8:BQ85">
       <formula1>Hidden_868</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR85">
       <formula1>Hidden_969</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="BG8" r:id="rId1"/>
-    <hyperlink ref="I8" r:id="rId2"/>
-    <hyperlink ref="P8" r:id="rId3"/>
-    <hyperlink ref="Q8" r:id="rId4"/>
-    <hyperlink ref="BG9" r:id="rId5"/>
-    <hyperlink ref="I9" r:id="rId6"/>
-    <hyperlink ref="P9" r:id="rId7"/>
-    <hyperlink ref="Q9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="BG10" r:id="rId10"/>
-    <hyperlink ref="P10" r:id="rId11"/>
-    <hyperlink ref="Q10" r:id="rId12"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -3212,11 +2546,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD51"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3224,7 +2556,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3263,57 +2595,23 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3323,11 +2621,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3393,40 +2689,6 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3436,9 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3513,9 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3588,11 +2846,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD146"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3618,30 +2874,6 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>211001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>217001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>331002</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3651,9 +2883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD80"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/xlsx/a69_f28_aUPPachuca.xlsx
+++ b/xlsx/a69_f28_aUPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="377">
   <si>
     <t>52273</t>
   </si>
@@ -1053,17 +1058,137 @@
     <t>Hipervínculo al documento del convenio</t>
   </si>
   <si>
-    <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios , no los generó esta Institución ya que no se realizó ningún procedimiento de contratación en el trimetre.</t>
-  </si>
-  <si>
     <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
+  </si>
+  <si>
+    <t>LPN-ESTATAL-01-2022</t>
+  </si>
+  <si>
+    <t>Grupo Hidalguense de Desarrollo, S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>GHD9608306BA</t>
+  </si>
+  <si>
+    <t>Servicio telefonico tradicional e internet</t>
+  </si>
+  <si>
+    <t>Francisco Villa</t>
+  </si>
+  <si>
+    <t>La Loma</t>
+  </si>
+  <si>
+    <t>Pachuca de Soto</t>
+  </si>
+  <si>
+    <t>Resulta solvente la propuesta presentada ya que cumple con los requisitos legales, tecnicos y economicos establecidos en la convocatoria a la licitacion publica y porlo tanto garantiza el cumplimiento de las obligaciones respectivas.</t>
+  </si>
+  <si>
+    <t>Fiscalización</t>
+  </si>
+  <si>
+    <t>Secretaria Administrativa</t>
+  </si>
+  <si>
+    <t>Departamento de Tecnologias de la Información y Comunicaciones</t>
+  </si>
+  <si>
+    <t>servicio de telefonico tradiacional e internet para la universidad</t>
+  </si>
+  <si>
+    <t>Ingresos Propios</t>
+  </si>
+  <si>
+    <t>22-10</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flores </t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Rector</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Secretario Saministrativo</t>
+  </si>
+  <si>
+    <t>Jorge Alfredo</t>
+  </si>
+  <si>
+    <t>Josue Roman</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Mireles</t>
+  </si>
+  <si>
+    <t>Secretario Academico</t>
+  </si>
+  <si>
+    <t>Donaciano</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Calva</t>
+  </si>
+  <si>
+    <t>Jefe del Departamento de adquisiciones</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Jefe del departamento de tecnologias de la informacion y comunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se hizo con una persona moral, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
+  </si>
+  <si>
+    <t>Transferencia bancaria</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_a/CONVOCATORIA_LICITACION_PUBLICA_SERVICIO_TELEFONIA_E_INTERNET_UPP_2021_No.LPN-ESTATAL-01-2021_BASES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_a/FALLO_LPN-ESTATAL-01-2022.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_a/APERTURA%20DE%20PROPOSICIONES_LPN-ESTATAL-01-2022.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_a/22-10%20GRUPO%20HIDALGUENSE%20DE%20DESARROLLO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_a/JUNTA_ACLARACIONES_LPN-ESTATAL-01-2022_TELEFONIA_E_INTERNET.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1091,6 +1216,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1110,7 +1243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1133,11 +1266,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1151,20 +1294,36 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1191,39 +1350,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1302,142 +1461,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -1445,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY2" workbookViewId="0">
-      <selection activeCell="BY12" sqref="BY12"/>
+    <sheetView topLeftCell="N2" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1642,7 @@
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="78.140625" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
@@ -1467,12 +1650,12 @@
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="82" customWidth="1"/>
     <col min="18" max="18" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="43.28515625" customWidth="1"/>
     <col min="23" max="23" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="69.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="63.5703125" bestFit="1" customWidth="1"/>
@@ -1493,7 +1676,7 @@
     <col min="40" max="40" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.28515625" customWidth="1"/>
     <col min="44" max="44" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -1505,11 +1688,11 @@
     <col min="52" max="52" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="24.5703125" customWidth="1"/>
+    <col min="56" max="56" width="26.85546875" customWidth="1"/>
     <col min="57" max="57" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="78.5703125" customWidth="1"/>
     <col min="60" max="60" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="46" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="36.140625" bestFit="1" customWidth="1"/>
@@ -1530,7 +1713,7 @@
     <col min="77" max="77" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="20" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="51.28515625" customWidth="1"/>
+    <col min="80" max="80" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
@@ -1539,38 +1722,38 @@
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:80" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2057,88 +2240,88 @@
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="8"/>
-      <c r="BQ6" s="8"/>
-      <c r="BR6" s="8"/>
-      <c r="BS6" s="8"/>
-      <c r="BT6" s="8"/>
-      <c r="BU6" s="8"/>
-      <c r="BV6" s="8"/>
-      <c r="BW6" s="8"/>
-      <c r="BX6" s="8"/>
-      <c r="BY6" s="8"/>
-      <c r="BZ6" s="8"/>
-      <c r="CA6" s="8"/>
-      <c r="CB6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
     </row>
     <row r="7" spans="1:80" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2382,76 +2565,170 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:80" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="4">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+        <v>44742</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="J8" s="4">
+        <v>44641</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>44648</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>376</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
+      <c r="V8" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>79</v>
+      </c>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
+      <c r="AB8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>48</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>48</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>42088</v>
+      </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AO8" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="AR8" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="AS8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>44652</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>44652</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>44926</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>464935.32</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>539324.97</v>
+      </c>
       <c r="AY8" s="3"/>
       <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
+      <c r="BA8" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
+      <c r="BC8" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="BD8" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="BE8" s="4">
+        <v>44652</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>44926</v>
+      </c>
+      <c r="BG8" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
+      <c r="BI8" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK8" s="3" t="s">
+        <v>348</v>
+      </c>
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3"/>
@@ -2463,19 +2740,21 @@
       <c r="BT8" s="3"/>
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
-      <c r="BW8" s="3"/>
+      <c r="BW8" s="10" t="s">
+        <v>374</v>
+      </c>
       <c r="BX8" s="3"/>
-      <c r="BY8" s="10" t="s">
-        <v>336</v>
+      <c r="BY8" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="BZ8" s="4">
-        <v>44777</v>
+        <v>44753</v>
       </c>
       <c r="CA8" s="4">
-        <v>44777</v>
+        <v>44753</v>
       </c>
       <c r="CB8" s="6" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2489,35 +2768,43 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D85">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E85">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F85">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
       <formula1>Hidden_35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X85">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8">
       <formula1>Hidden_423</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8:AB85">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8">
       <formula1>Hidden_527</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8:AI85">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8">
       <formula1>Hidden_634</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8:BJ85">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8">
       <formula1>Hidden_761</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8:BQ85">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8">
       <formula1>Hidden_868</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR85">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8">
       <formula1>Hidden_969</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1"/>
+    <hyperlink ref="P8" r:id="rId2"/>
+    <hyperlink ref="BW8" r:id="rId3"/>
+    <hyperlink ref="BG8" r:id="rId4"/>
+    <hyperlink ref="Q8" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2546,9 +2833,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2556,7 +2845,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2612,6 +2901,20 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2621,9 +2924,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2631,7 +2936,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2687,6 +2992,20 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2696,9 +3015,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2706,7 +3027,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
     <col min="6" max="6" width="78.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2762,6 +3083,20 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2771,9 +3106,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2839,6 +3176,96 @@
         <v>324</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2846,9 +3273,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2872,6 +3301,14 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>314001</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f28_aUPPachuca.xlsx
+++ b/xlsx/a69_f28_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -21,31 +16,38 @@
     <sheet name="Hidden_6" sheetId="7" r:id="rId7"/>
     <sheet name="Hidden_7" sheetId="8" r:id="rId8"/>
     <sheet name="Hidden_8" sheetId="9" r:id="rId9"/>
-    <sheet name="Hidden_9" sheetId="10" r:id="rId10"/>
-    <sheet name="Tabla_492838" sheetId="11" r:id="rId11"/>
-    <sheet name="Tabla_492867" sheetId="12" r:id="rId12"/>
-    <sheet name="Tabla_492868" sheetId="13" r:id="rId13"/>
-    <sheet name="Tabla_492869" sheetId="14" r:id="rId14"/>
-    <sheet name="Tabla_492870" sheetId="15" r:id="rId15"/>
-    <sheet name="Tabla_492871" sheetId="16" r:id="rId16"/>
+    <sheet name="Tabla_492838" sheetId="10" r:id="rId10"/>
+    <sheet name="Tabla_492867" sheetId="11" r:id="rId11"/>
+    <sheet name="Tabla_492868" sheetId="12" r:id="rId12"/>
+    <sheet name="Tabla_492869" sheetId="13" r:id="rId13"/>
+    <sheet name="Tabla_492870" sheetId="14" r:id="rId14"/>
+    <sheet name="Tabla_492871" sheetId="15" r:id="rId15"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId16"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$3</definedName>
-    <definedName name="Hidden_24">Hidden_2!$A$1:$A$5</definedName>
-    <definedName name="Hidden_35">Hidden_3!$A$1:$A$2</definedName>
-    <definedName name="Hidden_423">Hidden_4!$A$1:$A$26</definedName>
-    <definedName name="Hidden_527">Hidden_5!$A$1:$A$41</definedName>
-    <definedName name="Hidden_634">Hidden_6!$A$1:$A$32</definedName>
-    <definedName name="Hidden_761">Hidden_7!$A$1:$A$3</definedName>
-    <definedName name="Hidden_868">Hidden_8!$A$1:$A$3</definedName>
-    <definedName name="Hidden_969">Hidden_9!$A$1:$A$2</definedName>
+    <definedName name="Hidden_24">Hidden_2!$A$1:$A$2</definedName>
+    <definedName name="Hidden_322">Hidden_3!$A$1:$A$26</definedName>
+    <definedName name="Hidden_35">[1]Hidden_3!$A$1:$A$2</definedName>
+    <definedName name="Hidden_423">[1]Hidden_4!$A$1:$A$26</definedName>
+    <definedName name="Hidden_426">Hidden_4!$A$1:$A$41</definedName>
+    <definedName name="Hidden_527">[1]Hidden_5!$A$1:$A$41</definedName>
+    <definedName name="Hidden_533">Hidden_5!$A$1:$A$32</definedName>
+    <definedName name="Hidden_634">[1]Hidden_6!$A$1:$A$32</definedName>
+    <definedName name="Hidden_660">Hidden_6!$A$1:$A$3</definedName>
+    <definedName name="Hidden_761">[1]Hidden_7!$A$1:$A$3</definedName>
+    <definedName name="Hidden_767">Hidden_7!$A$1:$A$3</definedName>
+    <definedName name="Hidden_868">Hidden_8!$A$1:$A$2</definedName>
+    <definedName name="Hidden_969">[1]Hidden_9!$A$1:$A$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="435">
   <si>
     <t>52273</t>
   </si>
@@ -107,9 +109,6 @@
     <t>492883</t>
   </si>
   <si>
-    <t>492865</t>
-  </si>
-  <si>
     <t>562001</t>
   </si>
   <si>
@@ -348,9 +347,6 @@
   </si>
   <si>
     <t>Tipo de procedimiento (catálogo)</t>
-  </si>
-  <si>
-    <t>Materia o tipo de contratación (catálogo)</t>
   </si>
   <si>
     <t>Carácter del procedimiento (catálogo)</t>
@@ -593,21 +589,6 @@
     <t>Otro (especificar)</t>
   </si>
   <si>
-    <t>Obra pública</t>
-  </si>
-  <si>
-    <t>Servicios relacionados con obra pública</t>
-  </si>
-  <si>
-    <t>Adquisiciones</t>
-  </si>
-  <si>
-    <t>Arrendamientos</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
     <t>Nacional</t>
   </si>
   <si>
@@ -1058,25 +1039,7 @@
     <t>Hipervínculo al documento del convenio</t>
   </si>
   <si>
-    <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
-  </si>
-  <si>
-    <t>LPN-ESTATAL-01-2022</t>
-  </si>
-  <si>
-    <t>Grupo Hidalguense de Desarrollo, S.A. de C.V.</t>
-  </si>
-  <si>
-    <t>GHD9608306BA</t>
-  </si>
-  <si>
-    <t>Servicio telefonico tradicional e internet</t>
-  </si>
-  <si>
-    <t>Francisco Villa</t>
-  </si>
-  <si>
-    <t>La Loma</t>
+    <t xml:space="preserve"> Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
   </si>
   <si>
     <t>Pachuca de Soto</t>
@@ -1085,22 +1048,61 @@
     <t>Resulta solvente la propuesta presentada ya que cumple con los requisitos legales, tecnicos y economicos establecidos en la convocatoria a la licitacion publica y porlo tanto garantiza el cumplimiento de las obligaciones respectivas.</t>
   </si>
   <si>
-    <t>Fiscalización</t>
-  </si>
-  <si>
     <t>Secretaria Administrativa</t>
   </si>
   <si>
-    <t>Departamento de Tecnologias de la Información y Comunicaciones</t>
-  </si>
-  <si>
-    <t>servicio de telefonico tradiacional e internet para la universidad</t>
+    <t>Transferencia bancaria</t>
   </si>
   <si>
     <t>Ingresos Propios</t>
   </si>
   <si>
-    <t>22-10</t>
+    <t>LPN-ESTATAL-02-2022</t>
+  </si>
+  <si>
+    <t>LPN-ESTATAL-03-2022</t>
+  </si>
+  <si>
+    <t>Adquisición de Material Didactico Para la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Grupo de Negocios TSA SA de CV</t>
+  </si>
+  <si>
+    <t>GNT0412146X2</t>
+  </si>
+  <si>
+    <t>Luis Miguel Angel Fernandez Guzman Y Secretaria de Hacienda y Credito Publico</t>
+  </si>
+  <si>
+    <t>FEGL900414UF3</t>
+  </si>
+  <si>
+    <t>Int. 3</t>
+  </si>
+  <si>
+    <t>20 de Noviembre</t>
+  </si>
+  <si>
+    <t>Venustiano Carranza</t>
+  </si>
+  <si>
+    <t>Tipografia</t>
+  </si>
+  <si>
+    <t>Secretaria Academica</t>
+  </si>
+  <si>
+    <t>Departamento de Adquisiciones, bienes y servicios</t>
+  </si>
+  <si>
+    <t>22-47</t>
+  </si>
+  <si>
+    <t>Adquisición de material didactico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se hizo con una persona fisica, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
   </si>
   <si>
     <t>Marco Antonio</t>
@@ -1115,6 +1117,9 @@
     <t>Rector</t>
   </si>
   <si>
+    <t>Jorge Alfredo</t>
+  </si>
+  <si>
     <t>Fernandez</t>
   </si>
   <si>
@@ -1124,9 +1129,6 @@
     <t>Secretario Saministrativo</t>
   </si>
   <si>
-    <t>Jorge Alfredo</t>
-  </si>
-  <si>
     <t>Josue Roman</t>
   </si>
   <si>
@@ -1163,25 +1165,199 @@
     <t>Jefe del departamento de tecnologias de la informacion y comunicaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se hizo con una persona moral, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
-  </si>
-  <si>
-    <t>Transferencia bancaria</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_a/CONVOCATORIA_LICITACION_PUBLICA_SERVICIO_TELEFONIA_E_INTERNET_UPP_2021_No.LPN-ESTATAL-01-2021_BASES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_a/FALLO_LPN-ESTATAL-01-2022.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_a/APERTURA%20DE%20PROPOSICIONES_LPN-ESTATAL-01-2022.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_a/22-10%20GRUPO%20HIDALGUENSE%20DE%20DESARROLLO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_a/JUNTA_ACLARACIONES_LPN-ESTATAL-01-2022_TELEFONIA_E_INTERNET.pdf</t>
+    <t>Luis Miguel  Angel</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>Luis Miguel Angel Fernandez Guzman</t>
+  </si>
+  <si>
+    <t>Luis Miguel Angel</t>
+  </si>
+  <si>
+    <t>Adquisicion de bienes informaticos</t>
+  </si>
+  <si>
+    <t>Comercializadora Mercantil B&amp;F</t>
+  </si>
+  <si>
+    <t>CMB110921UN9</t>
+  </si>
+  <si>
+    <t>Mexico-Pachuca km.</t>
+  </si>
+  <si>
+    <t>77 500</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Acayuca</t>
+  </si>
+  <si>
+    <t>Zapotlan de juarez</t>
+  </si>
+  <si>
+    <t>22-28</t>
+  </si>
+  <si>
+    <t>Adquisición de bienes informaticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se hizo con una persona Moral, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-02-2022</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-03-2022</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-04-2022</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-05-2022</t>
+  </si>
+  <si>
+    <t>Adquisicion de materia de oficina</t>
+  </si>
+  <si>
+    <t>Adquisicion de material para bienes informaticos</t>
+  </si>
+  <si>
+    <t>D Y C FLOGAR SA DE CV</t>
+  </si>
+  <si>
+    <t>DCF171124ER1</t>
+  </si>
+  <si>
+    <t>Anayeli Austria Ramirez</t>
+  </si>
+  <si>
+    <t>AURA8304235J6</t>
+  </si>
+  <si>
+    <t>Anayely</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>varias areas</t>
+  </si>
+  <si>
+    <t>22-29</t>
+  </si>
+  <si>
+    <t>22-46</t>
+  </si>
+  <si>
+    <t>Rovirosa</t>
+  </si>
+  <si>
+    <t>Felipe Angeles</t>
+  </si>
+  <si>
+    <t>77+300</t>
+  </si>
+  <si>
+    <t>El cerrito</t>
+  </si>
+  <si>
+    <t>22-48</t>
+  </si>
+  <si>
+    <t>22-49</t>
+  </si>
+  <si>
+    <t>Ampliacion santa Julia</t>
+  </si>
+  <si>
+    <t>L2A MZA 25</t>
+  </si>
+  <si>
+    <t>Margarita por servidumbre de paso</t>
+  </si>
+  <si>
+    <t>Adquisicion de material de oficina</t>
+  </si>
+  <si>
+    <t>Adquisicion de material de limpieza</t>
+  </si>
+  <si>
+    <t>Material para bienes informaticos</t>
+  </si>
+  <si>
+    <t>Adquisicion de medicinas y productos farmaceuticos para la universidad</t>
+  </si>
+  <si>
+    <t>Adquisicion de medicinas y productos farmaceuticos</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/LPN-ESTATAL-02-2022%20CONVOCATORIA.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/LPN-ESTATAL-03-2022%20CONVOCATORIA.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/IA-ESTATAL-02-2022%20BASES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/IA-ESTATAL-03-2022%20BASES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/IA-ESTATAL-04-2022%20BASES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPahcuca/dir1/2022/Julio-Septiembre/28_a/IA-ESTATAL-05-2022%20BASES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/JA-LPN-ESTATAL-02-2022%20JUNTA%20DE%20ACLARACIONES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/JA-LPN-ESTATAL-03-2022%20JUNTA%20DE%20ACALARACIONES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-LPN-ESTATAL-02-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-LPN-ESTATAL-03-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-IA-ESTATAL-02-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-IA-ESTATAL-03-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-IA-ESTATAL-04-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
+  </si>
+  <si>
+    <t>http://Utransparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-IA-ESTATAL-05-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-47LPN-ESTATAL-02-2022.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-28%20IA-ESTATAL-03-2022%20CESAR%20ENRIQUE%20MONRROY.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-48%20IA-ESTATAL-02-2022%20GRUPO%20DE%20NEGOCIOS%20TSA.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-29%20IA-ESTATAL-03-2022%20GRUPO%20DE%20NEGOCIOS%20TSA.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-46%20IA-ESTATAL-04-2022%20DYC%20FLOGAR.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-49%20IA-ESTATAL-05-2022%20ANAYELY%20AUTRIA%20RAMIREZ.pdf</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1387,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1225,7 +1401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,12 +1414,17 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE1E1E1"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1270,22 +1451,39 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1294,37 +1492,50 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1339,6 +1550,585 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Reporte de Formatos"/>
+      <sheetName val="Hidden_1"/>
+      <sheetName val="Hidden_2"/>
+      <sheetName val="Hidden_3"/>
+      <sheetName val="Hidden_4"/>
+      <sheetName val="Hidden_5"/>
+      <sheetName val="Hidden_6"/>
+      <sheetName val="Hidden_7"/>
+      <sheetName val="Hidden_8"/>
+      <sheetName val="Hidden_9"/>
+      <sheetName val="Tabla_492838"/>
+      <sheetName val="Tabla_492867"/>
+      <sheetName val="Tabla_492868"/>
+      <sheetName val="Tabla_492869"/>
+      <sheetName val="Tabla_492870"/>
+      <sheetName val="Tabla_492871"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Nacional</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Internacional</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Carretera</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Privada</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Eje vial</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Circunvalación</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Brecha</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Diagonal</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Calle</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Corredor</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Circuito</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Pasaje</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Vereda</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Calzada</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Viaducto</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Prolongación</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Boulevard</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Peatonal</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Retorno</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Camino</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Callejón</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Cerrada</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Ampliación</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Continuación</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Terracería</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Andador</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Periférico</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Avenida</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Aeropuerto</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Ampliación</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Barrio</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Cantón</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Ciudad</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Ciudad industrial</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Colonia</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Condominio</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Conjunto habitacional</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Corredor industrial</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Coto</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Cuartel</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Ejido</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Exhacienda</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Fracción</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Fraccionamiento</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Granja</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Hacienda</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Ingenio</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Manzana</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Paraje</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Parque industrial</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Privada</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Prolongación</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Pueblo</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Puerto</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Ranchería</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Rancho</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Región</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Residencial</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Rinconada</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Sección</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Sector</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Supermanzana</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Unidad</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Unidad habitacional</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Villa</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Zona federal</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Zona industrial</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Zona militar</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Zona naval</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>México</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Guerrero</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Puebla</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Quintana Roo</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Guanajuato</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Durango</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Michoacán de Ocampo</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>San Luis Potosí</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Campeche</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Coahuila de Zaragoza</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Nayarit</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Zacatecas</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Morelos</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Sonora</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Baja California Sur</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Colima</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Tabasco</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Oaxaca</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Tlaxcala</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Jalisco</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Chiapas</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Hidalgo</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Aguascalientes</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Tamaulipas</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Sinaloa</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Yucatán</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Chihuahua</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Querétaro</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Nuevo León</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Veracruz de Ignacio de la Llave</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Ciudad de México</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Baja California</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Federales</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Estatales</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Municipales</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Si</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>No</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1350,39 +2140,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1461,175 +2251,151 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB8"/>
+  <dimension ref="A1:CA13"/>
   <sheetViews>
-    <sheetView topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,124 +2404,123 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="78.140625" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="82" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43.28515625" customWidth="1"/>
-    <col min="23" max="23" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="61" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="74.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="69" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="77.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="73" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="84" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="60" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.28515625" customWidth="1"/>
-    <col min="44" max="44" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="44" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.5703125" customWidth="1"/>
-    <col min="56" max="56" width="26.85546875" customWidth="1"/>
-    <col min="57" max="57" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="78.5703125" customWidth="1"/>
-    <col min="60" max="60" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="46" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="82" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="46" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="57" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="82" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="20" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="55.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.5703125" customWidth="1"/>
+    <col min="11" max="11" width="46" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="72.7109375" customWidth="1"/>
+    <col min="16" max="16" width="76.85546875" customWidth="1"/>
+    <col min="17" max="17" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="61" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="69" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="73" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="84" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="60" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="51.140625" customWidth="1"/>
+    <col min="41" max="41" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" customWidth="1"/>
+    <col min="43" max="43" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="44" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.28515625" customWidth="1"/>
+    <col min="55" max="55" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="76.7109375" customWidth="1"/>
+    <col min="59" max="59" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="46" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="82" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="46" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="57" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="82" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:80" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1772,34 +2537,34 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P4" t="s">
         <v>11</v>
@@ -1808,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S4" t="s">
         <v>12</v>
@@ -1820,13 +2585,13 @@
         <v>12</v>
       </c>
       <c r="V4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="W4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" t="s">
         <v>7</v>
-      </c>
-      <c r="X4" t="s">
-        <v>9</v>
       </c>
       <c r="Y4" t="s">
         <v>7</v>
@@ -1835,34 +2600,34 @@
         <v>7</v>
       </c>
       <c r="AA4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH4" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AI4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>12</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>7</v>
       </c>
       <c r="AK4" t="s">
         <v>12</v>
@@ -1886,10 +2651,10 @@
         <v>12</v>
       </c>
       <c r="AR4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AS4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT4" t="s">
         <v>8</v>
@@ -1898,7 +2663,7 @@
         <v>8</v>
       </c>
       <c r="AV4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="s">
         <v>13</v>
@@ -1910,7 +2675,7 @@
         <v>13</v>
       </c>
       <c r="AZ4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BA4" t="s">
         <v>7</v>
@@ -1919,58 +2684,58 @@
         <v>7</v>
       </c>
       <c r="BC4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BE4" t="s">
         <v>8</v>
       </c>
       <c r="BF4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BG4" t="s">
         <v>11</v>
       </c>
       <c r="BH4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BJ4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BK4" t="s">
         <v>7</v>
       </c>
       <c r="BL4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BM4" t="s">
         <v>12</v>
       </c>
       <c r="BN4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO4" t="s">
         <v>12</v>
       </c>
-      <c r="BO4" t="s">
-        <v>11</v>
-      </c>
       <c r="BP4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BQ4" t="s">
         <v>9</v>
       </c>
       <c r="BR4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BT4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BU4" t="s">
         <v>11</v>
@@ -1982,22 +2747,19 @@
         <v>11</v>
       </c>
       <c r="BX4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BY4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BZ4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="CA4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CB4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2235,500 +2997,497 @@
       <c r="CA5" t="s">
         <v>94</v>
       </c>
-      <c r="CB5" t="s">
+    </row>
+    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="19"/>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="19"/>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="19"/>
+      <c r="BN6" s="19"/>
+      <c r="BO6" s="19"/>
+      <c r="BP6" s="19"/>
+      <c r="BQ6" s="19"/>
+      <c r="BR6" s="19"/>
+      <c r="BS6" s="19"/>
+      <c r="BT6" s="19"/>
+      <c r="BU6" s="19"/>
+      <c r="BV6" s="19"/>
+      <c r="BW6" s="19"/>
+      <c r="BX6" s="19"/>
+      <c r="BY6" s="19"/>
+      <c r="BZ6" s="19"/>
+      <c r="CA6" s="19"/>
+    </row>
+    <row r="7" spans="1:79" ht="39" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="12"/>
-      <c r="BI6" s="12"/>
-      <c r="BJ6" s="12"/>
-      <c r="BK6" s="12"/>
-      <c r="BL6" s="12"/>
-      <c r="BM6" s="12"/>
-      <c r="BN6" s="12"/>
-      <c r="BO6" s="12"/>
-      <c r="BP6" s="12"/>
-      <c r="BQ6" s="12"/>
-      <c r="BR6" s="12"/>
-      <c r="BS6" s="12"/>
-      <c r="BT6" s="12"/>
-      <c r="BU6" s="12"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="12"/>
-      <c r="BX6" s="12"/>
-      <c r="BY6" s="12"/>
-      <c r="BZ6" s="12"/>
-      <c r="CA6" s="12"/>
-      <c r="CB6" s="12"/>
-    </row>
-    <row r="7" spans="1:80" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AM7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AN7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AO7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AR7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AT7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AU7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AV7" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AX7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="AZ7" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="BA7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="BA7" s="2" t="s">
+      <c r="BB7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BC7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BC7" s="2" t="s">
+      <c r="BD7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="BD7" s="2" t="s">
+      <c r="BE7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="BE7" s="2" t="s">
+      <c r="BF7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="BF7" s="2" t="s">
+      <c r="BG7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BG7" s="2" t="s">
+      <c r="BH7" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BH7" s="2" t="s">
+      <c r="BI7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BI7" s="2" t="s">
+      <c r="BJ7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="BJ7" s="2" t="s">
+      <c r="BK7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="BK7" s="2" t="s">
+      <c r="BL7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="BL7" s="2" t="s">
+      <c r="BM7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="BM7" s="2" t="s">
+      <c r="BN7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="BN7" s="2" t="s">
+      <c r="BO7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BO7" s="2" t="s">
+      <c r="BP7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="BP7" s="2" t="s">
+      <c r="BQ7" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="BQ7" s="2" t="s">
+      <c r="BR7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="BR7" s="2" t="s">
+      <c r="BS7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="BS7" s="2" t="s">
+      <c r="BT7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="BT7" s="2" t="s">
+      <c r="BU7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="BU7" s="2" t="s">
+      <c r="BV7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="BV7" s="2" t="s">
+      <c r="BW7" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="BW7" s="2" t="s">
+      <c r="BX7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BX7" s="2" t="s">
+      <c r="BY7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BY7" s="2" t="s">
+      <c r="BZ7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="BZ7" s="2" t="s">
+      <c r="CA7" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="CA7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="CB7" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:80" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:79" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="4">
-        <v>44742</v>
+        <v>44864</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="3">
+        <v>178</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="I8" s="4">
+        <v>44732</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="J8" s="4">
-        <v>44641</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" s="4">
-        <v>44648</v>
+      <c r="L8" s="4">
+        <v>44735</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
       </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="10" t="s">
+      <c r="O8" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="U8" s="8"/>
       <c r="V8" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>79</v>
-      </c>
-      <c r="AA8" s="3"/>
+        <v>344</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>131</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="AB8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>48</v>
-      </c>
-      <c r="AE8" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="AF8" s="3">
-        <v>48</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>13</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>42088</v>
-      </c>
+      <c r="AC8" s="3">
+        <v>17</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>17</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>9</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>15300</v>
+      </c>
+      <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="8" t="s">
-        <v>343</v>
+      <c r="AN8" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO8" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AR8" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="AS8" s="7" t="s">
-        <v>349</v>
+      <c r="AR8" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>44742</v>
       </c>
       <c r="AT8" s="4">
-        <v>44652</v>
+        <v>44742</v>
       </c>
       <c r="AU8" s="4">
-        <v>44652</v>
-      </c>
-      <c r="AV8" s="4">
-        <v>44926</v>
+        <v>44798</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>219508.61</v>
       </c>
       <c r="AW8" s="3">
-        <v>464935.32</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>539324.97</v>
-      </c>
+        <v>254629.99</v>
+      </c>
+      <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="BD8" s="8" t="s">
-        <v>347</v>
+      <c r="AZ8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="BC8" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="BD8" s="4">
+        <v>44742</v>
       </c>
       <c r="BE8" s="4">
-        <v>44652</v>
-      </c>
-      <c r="BF8" s="4">
-        <v>44926</v>
-      </c>
-      <c r="BG8" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3">
+        <v>44798</v>
+      </c>
+      <c r="BF8" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3">
         <v>1</v>
       </c>
+      <c r="BI8" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="BJ8" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK8" s="3" t="s">
-        <v>348</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3"/>
@@ -2740,26 +3499,946 @@
       <c r="BT8" s="3"/>
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
-      <c r="BW8" s="10" t="s">
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="BY8" s="6">
+        <v>44844</v>
+      </c>
+      <c r="BZ8" s="6">
+        <v>44844</v>
+      </c>
+      <c r="CA8" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:79" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44864</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="I9" s="4">
+        <v>44732</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="BX8" s="3"/>
-      <c r="BY8" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="BZ8" s="4">
-        <v>44753</v>
-      </c>
-      <c r="CA8" s="4">
-        <v>44753</v>
-      </c>
-      <c r="CB8" s="6" t="s">
-        <v>370</v>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>44735</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>82</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>13</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>42191</v>
+      </c>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO9" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>44742</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>44742</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>44798</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>189650.97</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>219995.13</v>
+      </c>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="BC9" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="BD9" s="4">
+        <v>44742</v>
+      </c>
+      <c r="BE9" s="4">
+        <v>44798</v>
+      </c>
+      <c r="BF9" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3">
+        <v>2</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="BY9" s="6">
+        <v>44844</v>
+      </c>
+      <c r="BZ9" s="6">
+        <v>44844</v>
+      </c>
+      <c r="CA9" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:79" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44864</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="I10" s="4">
+        <v>44732</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1306</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>48</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>48</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>13</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>42082</v>
+      </c>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO10" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ10" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>44742</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>44742</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>44757</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>153891.79999999999</v>
+      </c>
+      <c r="AW10" s="3">
+        <v>178514.49</v>
+      </c>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="BC10" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="BD10" s="4">
+        <v>44742</v>
+      </c>
+      <c r="BE10" s="4">
+        <v>44757</v>
+      </c>
+      <c r="BF10" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3">
+        <v>3</v>
+      </c>
+      <c r="BI10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BJ10" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="BY10" s="6">
+        <v>44844</v>
+      </c>
+      <c r="BZ10" s="6">
+        <v>44844</v>
+      </c>
+      <c r="CA10" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:79" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44864</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="I11" s="4">
+        <v>44732</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1306</v>
+      </c>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>48</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>48</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>13</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>42082</v>
+      </c>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO11" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>44742</v>
+      </c>
+      <c r="AT11" s="4">
+        <v>44742</v>
+      </c>
+      <c r="AU11" s="4">
+        <v>44757</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>86664</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>100530.24000000001</v>
+      </c>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="BC11" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="BD11" s="4">
+        <v>44742</v>
+      </c>
+      <c r="BE11" s="4">
+        <v>44757</v>
+      </c>
+      <c r="BF11" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3">
+        <v>4</v>
+      </c>
+      <c r="BI11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BJ11" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="3"/>
+      <c r="BS11" s="3"/>
+      <c r="BT11" s="3"/>
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="BY11" s="6">
+        <v>44844</v>
+      </c>
+      <c r="BZ11" s="6">
+        <v>44844</v>
+      </c>
+      <c r="CA11" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:79" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44864</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" s="4">
+        <v>44805</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>82</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>13</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>42191</v>
+      </c>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO12" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>44817</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>44817</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>44834</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>89478.28</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>103794.8</v>
+      </c>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="BC12" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="BD12" s="4">
+        <v>44817</v>
+      </c>
+      <c r="BE12" s="4">
+        <v>44834</v>
+      </c>
+      <c r="BF12" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3">
+        <v>5</v>
+      </c>
+      <c r="BI12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BJ12" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="3"/>
+      <c r="BQ12" s="3"/>
+      <c r="BR12" s="3"/>
+      <c r="BS12" s="3"/>
+      <c r="BT12" s="3"/>
+      <c r="BU12" s="3"/>
+      <c r="BV12" s="3"/>
+      <c r="BW12" s="3"/>
+      <c r="BX12" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="BY12" s="6">
+        <v>44844</v>
+      </c>
+      <c r="BZ12" s="6">
+        <v>44844</v>
+      </c>
+      <c r="CA12" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:79" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44864</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="I13" s="4">
+        <v>44801</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="K13" s="3">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <v>5</v>
+      </c>
+      <c r="N13" s="3">
+        <v>5</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>48</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>48</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>13</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>42080</v>
+      </c>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO13" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP13" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AQ13" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AR13" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>44817</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>44817</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>44834</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>178995</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>207634.2</v>
+      </c>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="BC13" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="BD13" s="4">
+        <v>44817</v>
+      </c>
+      <c r="BE13" s="4">
+        <v>44834</v>
+      </c>
+      <c r="BF13" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3">
+        <v>6</v>
+      </c>
+      <c r="BI13" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BJ13" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="3"/>
+      <c r="BR13" s="3"/>
+      <c r="BS13" s="3"/>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="3"/>
+      <c r="BX13" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="BY13" s="6">
+        <v>44844</v>
+      </c>
+      <c r="BZ13" s="6">
+        <v>44844</v>
+      </c>
+      <c r="CA13" s="9" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:CB6"/>
+    <mergeCell ref="A6:CA6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2767,63 +4446,210 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W13">
+      <formula1>Hidden_322</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AA8:AA13">
+      <formula1>Hidden_426</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AH8:AH13">
+      <formula1>Hidden_533</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BI8:BI13">
+      <formula1>Hidden_660</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BP8:BP13">
+      <formula1>Hidden_767</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D13">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E13">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
-      <formula1>Hidden_35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8">
-      <formula1>Hidden_423</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8">
-      <formula1>Hidden_527</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8">
-      <formula1>Hidden_634</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8">
-      <formula1>Hidden_761</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8:BQ13">
       <formula1>Hidden_868</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8">
-      <formula1>Hidden_969</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1"/>
-    <hyperlink ref="P8" r:id="rId2"/>
-    <hyperlink ref="BW8" r:id="rId3"/>
-    <hyperlink ref="BG8" r:id="rId4"/>
-    <hyperlink ref="Q8" r:id="rId5"/>
+    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H9" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="H11" r:id="rId4"/>
+    <hyperlink ref="H12" r:id="rId5"/>
+    <hyperlink ref="H13" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="P8" r:id="rId9"/>
+    <hyperlink ref="P9" r:id="rId10"/>
+    <hyperlink ref="P10" r:id="rId11"/>
+    <hyperlink ref="P11" r:id="rId12"/>
+    <hyperlink ref="P12" r:id="rId13"/>
+    <hyperlink ref="P13" r:id="rId14"/>
+    <hyperlink ref="BF8" r:id="rId15"/>
+    <hyperlink ref="BF9" r:id="rId16"/>
+    <hyperlink ref="BF10" r:id="rId17"/>
+    <hyperlink ref="BF11" r:id="rId18"/>
+    <hyperlink ref="BF12" r:id="rId19"/>
+    <hyperlink ref="BF13" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="10" t="s">
         <v>290</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -2833,20 +4659,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2868,33 +4694,33 @@
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>300</v>
@@ -2903,18 +4729,86 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -2924,20 +4818,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2951,7 +4845,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -2974,38 +4868,58 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>338</v>
+      <c r="B4" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3015,101 +4929,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:FUT8"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
-    <col min="6" max="6" width="78.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,7 +4942,8 @@
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.5703125" customWidth="1"/>
+    <col min="7" max="4622" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3141,42 +4965,42 @@
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="E2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3194,27 +5018,27 @@
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>358</v>
@@ -3230,9 +5054,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>362</v>
@@ -3248,9 +5072,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>366</v>
@@ -3271,12 +5095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,15 +5116,15 @@
     </row>
     <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +5132,47 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>314001</v>
+        <v>217001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>214001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>211001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>214001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>253001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>216001</v>
       </c>
     </row>
   </sheetData>
@@ -3316,11 +5180,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3347,33 +5213,33 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3391,17 +5257,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3410,44 +5276,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -3457,12 +5285,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3470,7 +5298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
@@ -3480,132 +5308,132 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3613,7 +5441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
@@ -3623,207 +5451,207 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3831,7 +5659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
@@ -3841,162 +5669,190 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>282</v>
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4014,17 +5870,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4034,7 +5890,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4042,17 +5898,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f28_aUPPachuca.xlsx
+++ b/xlsx/a69_f28_aUPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -16,38 +16,31 @@
     <sheet name="Hidden_6" sheetId="7" r:id="rId7"/>
     <sheet name="Hidden_7" sheetId="8" r:id="rId8"/>
     <sheet name="Hidden_8" sheetId="9" r:id="rId9"/>
-    <sheet name="Tabla_492838" sheetId="10" r:id="rId10"/>
-    <sheet name="Tabla_492867" sheetId="11" r:id="rId11"/>
-    <sheet name="Tabla_492868" sheetId="12" r:id="rId12"/>
-    <sheet name="Tabla_492869" sheetId="13" r:id="rId13"/>
-    <sheet name="Tabla_492870" sheetId="14" r:id="rId14"/>
-    <sheet name="Tabla_492871" sheetId="15" r:id="rId15"/>
+    <sheet name="Hidden_9" sheetId="10" r:id="rId10"/>
+    <sheet name="Tabla_492838" sheetId="11" r:id="rId11"/>
+    <sheet name="Tabla_492867" sheetId="12" r:id="rId12"/>
+    <sheet name="Tabla_492868" sheetId="13" r:id="rId13"/>
+    <sheet name="Tabla_492869" sheetId="14" r:id="rId14"/>
+    <sheet name="Tabla_492870" sheetId="15" r:id="rId15"/>
+    <sheet name="Tabla_492871" sheetId="16" r:id="rId16"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId16"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$3</definedName>
-    <definedName name="Hidden_24">Hidden_2!$A$1:$A$2</definedName>
-    <definedName name="Hidden_322">Hidden_3!$A$1:$A$26</definedName>
-    <definedName name="Hidden_35">[1]Hidden_3!$A$1:$A$2</definedName>
-    <definedName name="Hidden_423">[1]Hidden_4!$A$1:$A$26</definedName>
-    <definedName name="Hidden_426">Hidden_4!$A$1:$A$41</definedName>
-    <definedName name="Hidden_527">[1]Hidden_5!$A$1:$A$41</definedName>
-    <definedName name="Hidden_533">Hidden_5!$A$1:$A$32</definedName>
-    <definedName name="Hidden_634">[1]Hidden_6!$A$1:$A$32</definedName>
-    <definedName name="Hidden_660">Hidden_6!$A$1:$A$3</definedName>
-    <definedName name="Hidden_761">[1]Hidden_7!$A$1:$A$3</definedName>
-    <definedName name="Hidden_767">Hidden_7!$A$1:$A$3</definedName>
-    <definedName name="Hidden_868">Hidden_8!$A$1:$A$2</definedName>
-    <definedName name="Hidden_969">[1]Hidden_9!$A$1:$A$2</definedName>
+    <definedName name="Hidden_24">Hidden_2!$A$1:$A$5</definedName>
+    <definedName name="Hidden_35">Hidden_3!$A$1:$A$2</definedName>
+    <definedName name="Hidden_423">Hidden_4!$A$1:$A$26</definedName>
+    <definedName name="Hidden_527">Hidden_5!$A$1:$A$41</definedName>
+    <definedName name="Hidden_634">Hidden_6!$A$1:$A$32</definedName>
+    <definedName name="Hidden_761">Hidden_7!$A$1:$A$3</definedName>
+    <definedName name="Hidden_868">Hidden_8!$A$1:$A$3</definedName>
+    <definedName name="Hidden_969">Hidden_9!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="426">
   <si>
     <t>52273</t>
   </si>
@@ -109,6 +102,9 @@
     <t>492883</t>
   </si>
   <si>
+    <t>492865</t>
+  </si>
+  <si>
     <t>562001</t>
   </si>
   <si>
@@ -347,6 +343,9 @@
   </si>
   <si>
     <t>Tipo de procedimiento (catálogo)</t>
+  </si>
+  <si>
+    <t>Materia o tipo de contratación (catálogo)</t>
   </si>
   <si>
     <t>Carácter del procedimiento (catálogo)</t>
@@ -589,6 +588,21 @@
     <t>Otro (especificar)</t>
   </si>
   <si>
+    <t>Obra pública</t>
+  </si>
+  <si>
+    <t>Servicios relacionados con obra pública</t>
+  </si>
+  <si>
+    <t>Adquisiciones</t>
+  </si>
+  <si>
+    <t>Arrendamientos</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
     <t>Nacional</t>
   </si>
   <si>
@@ -1039,325 +1053,277 @@
     <t>Hipervínculo al documento del convenio</t>
   </si>
   <si>
-    <t xml:space="preserve"> Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
+    <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flores </t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Rector</t>
+  </si>
+  <si>
+    <t>Jorge Alfredo</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Secretario Saministrativo</t>
+  </si>
+  <si>
+    <t>Josue Roman</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Mireles</t>
+  </si>
+  <si>
+    <t>Secretario Academico</t>
+  </si>
+  <si>
+    <t>Donaciano</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Calva</t>
+  </si>
+  <si>
+    <t>Jefe del Departamento de adquisiciones</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Jefe del departamento de tecnologias de la informacion y comunicaciones</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-06-2022</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-07-2022</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-08-2022</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-09-2022</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-10-2022</t>
+  </si>
+  <si>
+    <t>IA-ESTATAL-11-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se hizo con una persona fisica, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
+  </si>
+  <si>
+    <t>Adquisicion de otros equipos</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Olvera</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>Gonzalo Olvera Diaz</t>
+  </si>
+  <si>
+    <t>OEDG800726HX4</t>
+  </si>
+  <si>
+    <t>San Beda</t>
+  </si>
+  <si>
+    <t>Paseo de las Reynas</t>
+  </si>
+  <si>
+    <t>Mineral de la reforma</t>
+  </si>
+  <si>
+    <t>Resulta solvente la propuesta presentada ya que cumple con los requisitos legales, tecnicos y economicos establecidos en la convocatoria a la licitacion publica y porlo tanto garantiza el cumplimiento de las obligaciones respectivas.</t>
+  </si>
+  <si>
+    <t>varias areas</t>
+  </si>
+  <si>
+    <t>Secretaria Administrativa</t>
+  </si>
+  <si>
+    <t>Departamento de Adquisiciones, bienes y servicios</t>
+  </si>
+  <si>
+    <t>22-64</t>
+  </si>
+  <si>
+    <t>pesos</t>
+  </si>
+  <si>
+    <t>Transferencia</t>
+  </si>
+  <si>
+    <t>Adquisicion de otros equipos para la universidad</t>
+  </si>
+  <si>
+    <t>Ingresos Propios</t>
+  </si>
+  <si>
+    <t>Adquisicion de contratacion del servicio de contabilidad, auditoria y servicios reacionados</t>
+  </si>
+  <si>
+    <t>Juana Judith</t>
+  </si>
+  <si>
+    <t>Gerrero</t>
+  </si>
+  <si>
+    <t>Tello</t>
+  </si>
+  <si>
+    <t>Juana judith Guerrero Tello</t>
+  </si>
+  <si>
+    <t>GUTJ820624GT6</t>
+  </si>
+  <si>
+    <t>Manuel Tolsa</t>
+  </si>
+  <si>
+    <t>Centro</t>
   </si>
   <si>
     <t>Pachuca de Soto</t>
   </si>
   <si>
-    <t>Resulta solvente la propuesta presentada ya que cumple con los requisitos legales, tecnicos y economicos establecidos en la convocatoria a la licitacion publica y porlo tanto garantiza el cumplimiento de las obligaciones respectivas.</t>
-  </si>
-  <si>
-    <t>Secretaria Administrativa</t>
-  </si>
-  <si>
-    <t>Transferencia bancaria</t>
-  </si>
-  <si>
-    <t>Ingresos Propios</t>
-  </si>
-  <si>
-    <t>LPN-ESTATAL-02-2022</t>
-  </si>
-  <si>
-    <t>LPN-ESTATAL-03-2022</t>
-  </si>
-  <si>
-    <t>Adquisición de Material Didactico Para la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Grupo de Negocios TSA SA de CV</t>
-  </si>
-  <si>
-    <t>GNT0412146X2</t>
-  </si>
-  <si>
-    <t>Luis Miguel Angel Fernandez Guzman Y Secretaria de Hacienda y Credito Publico</t>
-  </si>
-  <si>
-    <t>FEGL900414UF3</t>
-  </si>
-  <si>
-    <t>Int. 3</t>
-  </si>
-  <si>
-    <t>20 de Noviembre</t>
-  </si>
-  <si>
-    <t>Venustiano Carranza</t>
-  </si>
-  <si>
-    <t>Tipografia</t>
-  </si>
-  <si>
-    <t>Secretaria Academica</t>
-  </si>
-  <si>
-    <t>Departamento de Adquisiciones, bienes y servicios</t>
-  </si>
-  <si>
-    <t>22-47</t>
-  </si>
-  <si>
-    <t>Adquisición de material didactico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se hizo con una persona fisica, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
-  </si>
-  <si>
-    <t>Marco Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flores </t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Rector</t>
-  </si>
-  <si>
-    <t>Jorge Alfredo</t>
-  </si>
-  <si>
-    <t>Fernandez</t>
-  </si>
-  <si>
-    <t>Salas</t>
-  </si>
-  <si>
-    <t>Secretario Saministrativo</t>
-  </si>
-  <si>
-    <t>Josue Roman</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Mireles</t>
-  </si>
-  <si>
-    <t>Secretario Academico</t>
-  </si>
-  <si>
-    <t>Donaciano</t>
-  </si>
-  <si>
-    <t>Moreno</t>
-  </si>
-  <si>
-    <t>Calva</t>
-  </si>
-  <si>
-    <t>Jefe del Departamento de adquisiciones</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Jefe del departamento de tecnologias de la informacion y comunicaciones</t>
-  </si>
-  <si>
-    <t>Luis Miguel  Angel</t>
-  </si>
-  <si>
-    <t>Guzman</t>
-  </si>
-  <si>
-    <t>Luis Miguel Angel Fernandez Guzman</t>
-  </si>
-  <si>
-    <t>Luis Miguel Angel</t>
-  </si>
-  <si>
-    <t>Adquisicion de bienes informaticos</t>
-  </si>
-  <si>
-    <t>Comercializadora Mercantil B&amp;F</t>
-  </si>
-  <si>
-    <t>CMB110921UN9</t>
-  </si>
-  <si>
-    <t>Mexico-Pachuca km.</t>
-  </si>
-  <si>
-    <t>77 500</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t>Acayuca</t>
-  </si>
-  <si>
-    <t>Zapotlan de juarez</t>
-  </si>
-  <si>
-    <t>22-28</t>
-  </si>
-  <si>
-    <t>Adquisición de bienes informaticos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se hizo con una persona Moral, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-02-2022</t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-03-2022</t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-04-2022</t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-05-2022</t>
-  </si>
-  <si>
-    <t>Adquisicion de materia de oficina</t>
-  </si>
-  <si>
-    <t>Adquisicion de material para bienes informaticos</t>
-  </si>
-  <si>
-    <t>D Y C FLOGAR SA DE CV</t>
-  </si>
-  <si>
-    <t>DCF171124ER1</t>
-  </si>
-  <si>
-    <t>Anayeli Austria Ramirez</t>
-  </si>
-  <si>
-    <t>AURA8304235J6</t>
-  </si>
-  <si>
-    <t>Anayely</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Ramirez</t>
-  </si>
-  <si>
-    <t>varias areas</t>
-  </si>
-  <si>
-    <t>22-29</t>
-  </si>
-  <si>
-    <t>22-46</t>
-  </si>
-  <si>
-    <t>Rovirosa</t>
-  </si>
-  <si>
-    <t>Felipe Angeles</t>
-  </si>
-  <si>
-    <t>77+300</t>
-  </si>
-  <si>
-    <t>El cerrito</t>
-  </si>
-  <si>
-    <t>22-48</t>
-  </si>
-  <si>
-    <t>22-49</t>
-  </si>
-  <si>
-    <t>Ampliacion santa Julia</t>
-  </si>
-  <si>
-    <t>L2A MZA 25</t>
-  </si>
-  <si>
-    <t>Margarita por servidumbre de paso</t>
-  </si>
-  <si>
-    <t>Adquisicion de material de oficina</t>
-  </si>
-  <si>
-    <t>Adquisicion de material de limpieza</t>
-  </si>
-  <si>
-    <t>Material para bienes informaticos</t>
-  </si>
-  <si>
-    <t>Adquisicion de medicinas y productos farmaceuticos para la universidad</t>
-  </si>
-  <si>
-    <t>Adquisicion de medicinas y productos farmaceuticos</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/LPN-ESTATAL-02-2022%20CONVOCATORIA.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/LPN-ESTATAL-03-2022%20CONVOCATORIA.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/IA-ESTATAL-02-2022%20BASES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/IA-ESTATAL-03-2022%20BASES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/IA-ESTATAL-04-2022%20BASES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPahcuca/dir1/2022/Julio-Septiembre/28_a/IA-ESTATAL-05-2022%20BASES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/JA-LPN-ESTATAL-02-2022%20JUNTA%20DE%20ACLARACIONES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/JA-LPN-ESTATAL-03-2022%20JUNTA%20DE%20ACALARACIONES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-LPN-ESTATAL-02-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-LPN-ESTATAL-03-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-IA-ESTATAL-02-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-IA-ESTATAL-03-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-IA-ESTATAL-04-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
-  </si>
-  <si>
-    <t>http://Utransparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/AP-IA-ESTATAL-05-2022%20APERTURA%20DE%20PROPOSICIONES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-47LPN-ESTATAL-02-2022.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-28%20IA-ESTATAL-03-2022%20CESAR%20ENRIQUE%20MONRROY.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-48%20IA-ESTATAL-02-2022%20GRUPO%20DE%20NEGOCIOS%20TSA.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-29%20IA-ESTATAL-03-2022%20GRUPO%20DE%20NEGOCIOS%20TSA.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-46%20IA-ESTATAL-04-2022%20DYC%20FLOGAR.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/28_a/22-49%20IA-ESTATAL-05-2022%20ANAYELY%20AUTRIA%20RAMIREZ.pdf</t>
+    <t>Fizcalizacion</t>
+  </si>
+  <si>
+    <t>22-61</t>
+  </si>
+  <si>
+    <t>Adquisicion de material electronico</t>
+  </si>
+  <si>
+    <t>22-68</t>
+  </si>
+  <si>
+    <t>Adquisicion de materiales y suministros medicos</t>
+  </si>
+  <si>
+    <t>22-69</t>
+  </si>
+  <si>
+    <t>Adquisicion de materiales y suministros de laboratorio</t>
+  </si>
+  <si>
+    <t>22-70</t>
+  </si>
+  <si>
+    <t>Adquisicion de refacciones y accesorios menores de equipo de computo</t>
+  </si>
+  <si>
+    <t>Adquisicion de refacciones y accesorios menores deequipo de computo</t>
+  </si>
+  <si>
+    <t>22-65</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-06-2022/IA-ESTATAL-06-2022-BASES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA%20ESTATAL-07-2022/IA-ESTATAL-07-2022-BASES.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-08-202/IA-ESTATAL-08-2022-BASES-MATERIAL_ELECTRONICO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-09-2022/IA-ESTATAL-09-2022-BASES_MATERIALES_Y_SUMINISTROS_DE_LABORATORIO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-10-2022/IA-ESTATAL-10-2022-BASES_MATERIALES_Y_SUMINISTROS_MEDICOSb.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-11-2022/IA-ESTATAL-11-2022-BASES_REFACCIONES_Y_ACCESORIOS_2.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-11-2022/IA-ESTATAL-11-2022-Apertura.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-11-2022/IA-ESTATAL-11-2022-FALLO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-10-2022/IA-ESTATAL-10-2022-Apertura.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-09-2022/IA-ESTATAL-09-2022-Apertura.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-08-202/IA-ESTATAL-08-2022-Apertura.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA%20ESTATAL-07-2022/IA-ESTATAL-07-2022-Apertura.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-06-2022/IA-ESTATAL-06-2022-Fallo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-06-2022/IA-ESTATAL-06-2022-Apertura.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-06-2022/22-64%20IA-ESTATAL-06-2022%20GONZALO%20OLVERA%20DIAZ.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA%20ESTATAL-07-2022/22-61%20IA-ESTATAL%2007-2022%20JUANA%20JUDITH%20GUERRERO%20TELLO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-08-202/22-68%20IA-ESTATAL-08%202022%20GONZALO%20OLVERA%20DIAZ%20ELECTRONICO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-09-2022/22-69%20IA-ESTATAL-09-2022%20GONZALO%20OLVERA%20DIAZ%20SUMINISTROS%20DE%20LABORATORIO.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-10-2022/22-70%20IA-ESTATAL-10-2022%20GONZALO%20OLVERA%20DIAZ%20SUMINISTROS%20MEDICOS.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-11-2022/22-65%20IA-ESTATAL-11-2022%20GONZALO%20OLVERA%20DIAZ.pdf</t>
+  </si>
+  <si>
+    <t>FOGM680705G2A</t>
+  </si>
+  <si>
+    <t>FESJ5710208Y5</t>
+  </si>
+  <si>
+    <t>MAMJ8208266N6</t>
+  </si>
+  <si>
+    <t>MOCD6005248Q9</t>
+  </si>
+  <si>
+    <t>LUCD81118GM4</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1353,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1401,7 +1367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1414,17 +1380,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE1E1E1"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1451,39 +1412,22 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1492,50 +1436,33 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1550,585 +1477,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Reporte de Formatos"/>
-      <sheetName val="Hidden_1"/>
-      <sheetName val="Hidden_2"/>
-      <sheetName val="Hidden_3"/>
-      <sheetName val="Hidden_4"/>
-      <sheetName val="Hidden_5"/>
-      <sheetName val="Hidden_6"/>
-      <sheetName val="Hidden_7"/>
-      <sheetName val="Hidden_8"/>
-      <sheetName val="Hidden_9"/>
-      <sheetName val="Tabla_492838"/>
-      <sheetName val="Tabla_492867"/>
-      <sheetName val="Tabla_492868"/>
-      <sheetName val="Tabla_492869"/>
-      <sheetName val="Tabla_492870"/>
-      <sheetName val="Tabla_492871"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Nacional</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Internacional</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Carretera</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Privada</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Eje vial</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Circunvalación</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Brecha</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Diagonal</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Calle</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Corredor</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Circuito</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Pasaje</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Vereda</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Calzada</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Viaducto</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Prolongación</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Boulevard</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Peatonal</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Retorno</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Camino</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Callejón</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Cerrada</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Ampliación</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Continuación</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Terracería</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Andador</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Periférico</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Avenida</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Aeropuerto</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Ampliación</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Barrio</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Cantón</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Ciudad</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Ciudad industrial</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Colonia</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Condominio</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Conjunto habitacional</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Corredor industrial</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Coto</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Cuartel</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Ejido</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Exhacienda</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Fracción</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Fraccionamiento</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Granja</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Hacienda</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Ingenio</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Manzana</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Paraje</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Parque industrial</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Privada</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Prolongación</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Pueblo</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Puerto</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Ranchería</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Rancho</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Región</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Residencial</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Rinconada</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Sección</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Sector</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Supermanzana</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Unidad</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Unidad habitacional</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Villa</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Zona federal</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Zona industrial</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Zona militar</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>Zona naval</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>México</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Guerrero</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Puebla</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Quintana Roo</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Guanajuato</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Durango</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Michoacán de Ocampo</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>San Luis Potosí</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Campeche</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Coahuila de Zaragoza</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Nayarit</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Zacatecas</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Morelos</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Sonora</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Baja California Sur</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Colima</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Tabasco</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Oaxaca</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Tlaxcala</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Jalisco</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Chiapas</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Hidalgo</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Aguascalientes</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Tamaulipas</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Sinaloa</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Yucatán</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Chihuahua</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Querétaro</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Nuevo León</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Veracruz de Ignacio de la Llave</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Ciudad de México</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Baja California</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Federales</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Estatales</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Municipales</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Si</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>No</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2140,39 +1488,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2207,7 +1555,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2251,151 +1599,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA13"/>
+  <dimension ref="A1:CB13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,123 +1776,124 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.5703125" customWidth="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="72.7109375" customWidth="1"/>
-    <col min="16" max="16" width="76.85546875" customWidth="1"/>
-    <col min="17" max="17" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="61" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="74.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="69" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="77.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="73" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="84" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="60" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="51.140625" customWidth="1"/>
-    <col min="41" max="41" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26" customWidth="1"/>
-    <col min="43" max="43" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="44" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.28515625" customWidth="1"/>
-    <col min="55" max="55" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="76.7109375" customWidth="1"/>
-    <col min="59" max="59" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="46" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="82" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="46" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="57" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="82" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="20" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="63" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="81.85546875" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="61" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="69" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="73" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="84" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="60" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="28.85546875" customWidth="1"/>
+    <col min="44" max="44" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="44" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.5703125" customWidth="1"/>
+    <col min="56" max="56" width="21.42578125" customWidth="1"/>
+    <col min="57" max="57" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="79.5703125" customWidth="1"/>
+    <col min="60" max="60" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="46" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="82" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="46" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="57" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="82" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:80" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2537,34 +1910,34 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>8</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" t="s">
         <v>11</v>
@@ -2573,7 +1946,7 @@
         <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S4" t="s">
         <v>12</v>
@@ -2585,13 +1958,13 @@
         <v>12</v>
       </c>
       <c r="V4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" t="s">
         <v>7</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>9</v>
-      </c>
-      <c r="X4" t="s">
-        <v>7</v>
       </c>
       <c r="Y4" t="s">
         <v>7</v>
@@ -2600,34 +1973,34 @@
         <v>7</v>
       </c>
       <c r="AA4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>7</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>12</v>
       </c>
       <c r="AK4" t="s">
         <v>12</v>
@@ -2651,10 +2024,10 @@
         <v>12</v>
       </c>
       <c r="AR4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS4" t="s">
         <v>7</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>8</v>
       </c>
       <c r="AT4" t="s">
         <v>8</v>
@@ -2663,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="AV4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AW4" t="s">
         <v>13</v>
@@ -2675,7 +2048,7 @@
         <v>13</v>
       </c>
       <c r="AZ4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA4" t="s">
         <v>7</v>
@@ -2684,58 +2057,58 @@
         <v>7</v>
       </c>
       <c r="BC4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD4" t="s">
         <v>12</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>8</v>
       </c>
       <c r="BE4" t="s">
         <v>8</v>
       </c>
       <c r="BF4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BG4" t="s">
         <v>11</v>
       </c>
       <c r="BH4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI4" t="s">
         <v>10</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>9</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>7</v>
       </c>
       <c r="BK4" t="s">
         <v>7</v>
       </c>
       <c r="BL4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BM4" t="s">
         <v>12</v>
       </c>
       <c r="BN4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO4" t="s">
         <v>11</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>12</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>9</v>
       </c>
       <c r="BQ4" t="s">
         <v>9</v>
       </c>
       <c r="BR4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS4" t="s">
         <v>10</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BT4" t="s">
         <v>12</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>11</v>
       </c>
       <c r="BU4" t="s">
         <v>11</v>
@@ -2747,19 +2120,22 @@
         <v>11</v>
       </c>
       <c r="BX4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY4" t="s">
         <v>12</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="BZ4" t="s">
         <v>8</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="CA4" t="s">
         <v>14</v>
       </c>
-      <c r="CA4" t="s">
+      <c r="CB4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2997,497 +2373,502 @@
       <c r="CA5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="CB5" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="19"/>
-      <c r="BK6" s="19"/>
-      <c r="BL6" s="19"/>
-      <c r="BM6" s="19"/>
-      <c r="BN6" s="19"/>
-      <c r="BO6" s="19"/>
-      <c r="BP6" s="19"/>
-      <c r="BQ6" s="19"/>
-      <c r="BR6" s="19"/>
-      <c r="BS6" s="19"/>
-      <c r="BT6" s="19"/>
-      <c r="BU6" s="19"/>
-      <c r="BV6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="19"/>
-      <c r="BZ6" s="19"/>
-      <c r="CA6" s="19"/>
-    </row>
-    <row r="7" spans="1:79" ht="39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="10"/>
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="10"/>
+    </row>
+    <row r="7" spans="1:80" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AZ7" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BA7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BC7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BD7" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BG7" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BH7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BI7" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BJ7" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BK7" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BM7" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BN7" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP7" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BQ7" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BR7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BS7" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BT7" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BU7" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BV7" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BW7" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BX7" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BY7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BZ7" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="CA7" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:79" ht="90" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="CB7" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="4">
-        <v>44864</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>175</v>
+        <v>44926</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="3">
+        <v>182</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="I8" s="4">
-        <v>44732</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="J8" s="4">
+        <v>44883</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="4">
-        <v>44735</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
-        <v>373</v>
-      </c>
+      <c r="P8" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="R8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="T8" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>465</v>
+      </c>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>51</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>131</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>17</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>17</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>9</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>15300</v>
-      </c>
-      <c r="AJ8" s="3"/>
+      <c r="AF8" s="3">
+        <v>51</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>42184</v>
+      </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
-      <c r="AN8" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO8" s="13" t="s">
-        <v>345</v>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AQ8" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AS8" s="4">
-        <v>44742</v>
+        <v>373</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="AT8" s="4">
-        <v>44742</v>
+        <v>44897</v>
       </c>
       <c r="AU8" s="4">
-        <v>44798</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>219508.61</v>
+        <v>44897</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>44914</v>
       </c>
       <c r="AW8" s="3">
-        <v>254629.99</v>
-      </c>
-      <c r="AX8" s="3"/>
+        <v>123767</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>143569.72</v>
+      </c>
       <c r="AY8" s="3"/>
-      <c r="AZ8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="BC8" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="BD8" s="4">
-        <v>44742</v>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BD8" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="BE8" s="4">
-        <v>44798</v>
-      </c>
-      <c r="BF8" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3">
+        <v>44897</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>44914</v>
+      </c>
+      <c r="BG8" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3">
         <v>1</v>
       </c>
-      <c r="BI8" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="BJ8" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="BK8" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="BK8" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3"/>
@@ -3500,181 +2881,184 @@
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
       <c r="BW8" s="3"/>
-      <c r="BX8" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="BY8" s="6">
-        <v>44844</v>
-      </c>
-      <c r="BZ8" s="6">
-        <v>44844</v>
-      </c>
-      <c r="CA8" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:79" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="BZ8" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CA8" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CB8" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2022</v>
       </c>
       <c r="B9" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C9" s="4">
-        <v>44864</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>175</v>
+        <v>44926</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="3">
+        <v>182</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="I9" s="4">
-        <v>44732</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="J9" s="4">
+        <v>44883</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="L9" s="4">
-        <v>44735</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="3">
-        <v>2</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8" t="s">
+        <v>412</v>
+      </c>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="8" t="s">
-        <v>375</v>
+      <c r="S9" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>180</v>
+        <v>386</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>377</v>
+        <v>206</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3" t="s">
-        <v>211</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>103</v>
+      </c>
+      <c r="AA9" s="3"/>
       <c r="AB9" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>82</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AG9" s="3">
+        <v>218</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>48</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>48</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH9" s="3">
         <v>13</v>
       </c>
-      <c r="AH9" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>42191</v>
-      </c>
-      <c r="AJ9" s="3"/>
+      <c r="AI9" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>42000</v>
+      </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
-      <c r="AN9" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO9" s="15" t="s">
-        <v>398</v>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AQ9" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AS9" s="4">
-        <v>44742</v>
+        <v>390</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="AT9" s="4">
-        <v>44742</v>
+        <v>44896</v>
       </c>
       <c r="AU9" s="4">
-        <v>44798</v>
-      </c>
-      <c r="AV9" s="3">
-        <v>189650.97</v>
+        <v>44896</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>45000</v>
       </c>
       <c r="AW9" s="3">
-        <v>219995.13</v>
-      </c>
-      <c r="AX9" s="3"/>
+        <v>128017.24</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>148500</v>
+      </c>
       <c r="AY9" s="3"/>
-      <c r="AZ9" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="BC9" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD9" s="4">
-        <v>44742</v>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BD9" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="BE9" s="4">
-        <v>44798</v>
-      </c>
-      <c r="BF9" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3">
+        <v>44896</v>
+      </c>
+      <c r="BF9" s="4">
+        <v>45000</v>
+      </c>
+      <c r="BG9" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3">
         <v>2</v>
       </c>
-      <c r="BI9" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="BJ9" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="BK9" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="BK9" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="BL9" s="3"/>
       <c r="BM9" s="3"/>
       <c r="BN9" s="3"/>
@@ -3687,177 +3071,184 @@
       <c r="BU9" s="3"/>
       <c r="BV9" s="3"/>
       <c r="BW9" s="3"/>
-      <c r="BX9" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="BY9" s="6">
-        <v>44844</v>
-      </c>
-      <c r="BZ9" s="6">
-        <v>44844</v>
-      </c>
-      <c r="CA9" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:79" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="BZ9" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CA9" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CB9" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2022</v>
       </c>
       <c r="B10" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C10" s="4">
-        <v>44864</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>176</v>
+        <v>44926</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="3">
+        <v>182</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="J10" s="4">
+        <v>44882</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
         <v>3</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="I10" s="4">
-        <v>44732</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q10" s="3"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8" t="s">
+        <v>411</v>
+      </c>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>338</v>
+      <c r="S10" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>194</v>
+        <v>368</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>1306</v>
-      </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3" t="s">
-        <v>211</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>465</v>
+      </c>
+      <c r="AA10" s="3"/>
       <c r="AB10" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>48</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>48</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AG10" s="3">
+        <v>218</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>51</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>51</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH10" s="3">
         <v>13</v>
       </c>
-      <c r="AH10" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>42082</v>
-      </c>
-      <c r="AJ10" s="3"/>
+      <c r="AI10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>42184</v>
+      </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
-      <c r="AN10" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO10" s="13" t="s">
-        <v>398</v>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AQ10" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR10" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="AS10" s="4">
-        <v>44742</v>
+        <v>373</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="AT10" s="4">
-        <v>44742</v>
+        <v>44901</v>
       </c>
       <c r="AU10" s="4">
-        <v>44757</v>
-      </c>
-      <c r="AV10" s="3">
-        <v>153891.79999999999</v>
+        <v>44901</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>44922</v>
       </c>
       <c r="AW10" s="3">
-        <v>178514.49</v>
-      </c>
-      <c r="AX10" s="3"/>
+        <v>80305.56</v>
+      </c>
+      <c r="AX10" s="3">
+        <v>93154.45</v>
+      </c>
       <c r="AY10" s="3"/>
-      <c r="AZ10" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="BC10" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="BD10" s="4">
-        <v>44742</v>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BD10" s="7" t="s">
+        <v>392</v>
       </c>
       <c r="BE10" s="4">
-        <v>44757</v>
-      </c>
-      <c r="BF10" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3">
+        <v>44901</v>
+      </c>
+      <c r="BF10" s="4">
+        <v>44922</v>
+      </c>
+      <c r="BG10" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3">
         <v>3</v>
       </c>
-      <c r="BI10" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="BJ10" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="BK10" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="BK10" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="BL10" s="3"/>
       <c r="BM10" s="3"/>
       <c r="BN10" s="3"/>
@@ -3870,177 +3261,184 @@
       <c r="BU10" s="3"/>
       <c r="BV10" s="3"/>
       <c r="BW10" s="3"/>
-      <c r="BX10" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="BY10" s="6">
-        <v>44844</v>
-      </c>
-      <c r="BZ10" s="6">
-        <v>44844</v>
-      </c>
-      <c r="CA10" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:79" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="BZ10" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CA10" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CB10" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2022</v>
       </c>
       <c r="B11" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C11" s="4">
-        <v>44864</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>176</v>
+        <v>44926</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="I11" s="4">
-        <v>44732</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="K11" s="3">
-        <v>3</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
-        <v>3</v>
-      </c>
-      <c r="N11" s="3">
-        <v>3</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q11" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="J11" s="4">
+        <v>44882</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>4</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8" t="s">
+        <v>410</v>
+      </c>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="V11" s="8" t="s">
-        <v>338</v>
+      <c r="S11" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>194</v>
+        <v>368</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>1306</v>
-      </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3" t="s">
-        <v>211</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>465</v>
+      </c>
+      <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>48</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>48</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AG11" s="3">
+        <v>218</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>51</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>51</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH11" s="3">
         <v>13</v>
       </c>
-      <c r="AH11" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>42082</v>
-      </c>
-      <c r="AJ11" s="3"/>
+      <c r="AI11" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>42184</v>
+      </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
-      <c r="AN11" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO11" s="13" t="s">
-        <v>398</v>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AQ11" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR11" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="AS11" s="4">
-        <v>44742</v>
+        <v>373</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="AT11" s="4">
-        <v>44742</v>
+        <v>44901</v>
       </c>
       <c r="AU11" s="4">
-        <v>44757</v>
-      </c>
-      <c r="AV11" s="3">
-        <v>86664</v>
+        <v>44901</v>
+      </c>
+      <c r="AV11" s="4">
+        <v>44922</v>
       </c>
       <c r="AW11" s="3">
-        <v>100530.24000000001</v>
-      </c>
-      <c r="AX11" s="3"/>
+        <v>108903.87</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>126328.49</v>
+      </c>
       <c r="AY11" s="3"/>
-      <c r="AZ11" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="BC11" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="BD11" s="4">
-        <v>44742</v>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BD11" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="BE11" s="4">
-        <v>44757</v>
-      </c>
-      <c r="BF11" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3">
+        <v>44901</v>
+      </c>
+      <c r="BF11" s="4">
+        <v>44922</v>
+      </c>
+      <c r="BG11" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3">
         <v>4</v>
       </c>
-      <c r="BI11" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="BJ11" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="BK11" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="BK11" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="BL11" s="3"/>
       <c r="BM11" s="3"/>
       <c r="BN11" s="3"/>
@@ -4053,177 +3451,184 @@
       <c r="BU11" s="3"/>
       <c r="BV11" s="3"/>
       <c r="BW11" s="3"/>
-      <c r="BX11" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="BY11" s="6">
-        <v>44844</v>
-      </c>
-      <c r="BZ11" s="6">
-        <v>44844</v>
-      </c>
-      <c r="CA11" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:79" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="BZ11" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CA11" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CB11" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2022</v>
       </c>
       <c r="B12" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C12" s="4">
-        <v>44864</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>176</v>
+        <v>44926</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="I12" s="4">
-        <v>44805</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q12" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J12" s="4">
+        <v>44912</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>5</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8" t="s">
+        <v>409</v>
+      </c>
       <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="V12" s="8" t="s">
-        <v>392</v>
+      <c r="S12" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>180</v>
+        <v>368</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>377</v>
+        <v>193</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3" t="s">
-        <v>211</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>465</v>
+      </c>
+      <c r="AA12" s="3"/>
       <c r="AB12" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>82</v>
-      </c>
-      <c r="AF12" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AG12" s="3">
+        <v>218</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>51</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>51</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH12" s="3">
         <v>13</v>
       </c>
-      <c r="AH12" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI12" s="3">
-        <v>42191</v>
-      </c>
-      <c r="AJ12" s="3"/>
+      <c r="AI12" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>42184</v>
+      </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
-      <c r="AN12" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO12" s="13" t="s">
-        <v>398</v>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AQ12" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR12" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="AS12" s="4">
-        <v>44817</v>
+        <v>373</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR12" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="AT12" s="4">
-        <v>44817</v>
+        <v>44901</v>
       </c>
       <c r="AU12" s="4">
-        <v>44834</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>89478.28</v>
+        <v>44901</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>44922</v>
       </c>
       <c r="AW12" s="3">
-        <v>103794.8</v>
-      </c>
-      <c r="AX12" s="3"/>
+        <v>87934.11</v>
+      </c>
+      <c r="AX12" s="3">
+        <v>102003.57</v>
+      </c>
       <c r="AY12" s="3"/>
-      <c r="AZ12" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="BC12" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="BD12" s="4">
-        <v>44817</v>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BD12" s="7" t="s">
+        <v>394</v>
       </c>
       <c r="BE12" s="4">
-        <v>44834</v>
-      </c>
-      <c r="BF12" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3">
+        <v>44901</v>
+      </c>
+      <c r="BF12" s="4">
+        <v>44922</v>
+      </c>
+      <c r="BG12" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3">
         <v>5</v>
       </c>
-      <c r="BI12" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="BJ12" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="BK12" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="BK12" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="BL12" s="3"/>
       <c r="BM12" s="3"/>
       <c r="BN12" s="3"/>
@@ -4236,181 +3641,184 @@
       <c r="BU12" s="3"/>
       <c r="BV12" s="3"/>
       <c r="BW12" s="3"/>
-      <c r="BX12" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="BY12" s="6">
-        <v>44844</v>
-      </c>
-      <c r="BZ12" s="6">
-        <v>44844</v>
-      </c>
-      <c r="CA12" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:79" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="BX12" s="3"/>
+      <c r="BY12" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="BZ12" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CA12" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CB12" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2022</v>
       </c>
       <c r="B13" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C13" s="4">
-        <v>44864</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>176</v>
+        <v>44926</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="I13" s="4">
-        <v>44801</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="K13" s="3">
-        <v>5</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3">
-        <v>5</v>
-      </c>
-      <c r="N13" s="3">
-        <v>5</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="J13" s="4">
+        <v>44913</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3" t="s">
-        <v>395</v>
-      </c>
+      <c r="P13" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="R13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8" t="s">
-        <v>394</v>
+        <v>365</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>186</v>
+        <v>368</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>409</v>
+        <v>193</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3" t="s">
-        <v>211</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>465</v>
+      </c>
+      <c r="AA13" s="3"/>
       <c r="AB13" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>48</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>48</v>
-      </c>
-      <c r="AF13" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AG13" s="3">
+        <v>218</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>51</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>51</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH13" s="3">
         <v>13</v>
       </c>
-      <c r="AH13" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>42080</v>
-      </c>
-      <c r="AJ13" s="3"/>
+      <c r="AI13" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>42184</v>
+      </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
-      <c r="AN13" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO13" s="13" t="s">
-        <v>398</v>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AQ13" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR13" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AS13" s="4">
-        <v>44817</v>
+        <v>373</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS13" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="AT13" s="4">
-        <v>44817</v>
+        <v>44897</v>
       </c>
       <c r="AU13" s="4">
-        <v>44834</v>
-      </c>
-      <c r="AV13" s="3">
-        <v>178995</v>
+        <v>44897</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>44911</v>
       </c>
       <c r="AW13" s="3">
-        <v>207634.2</v>
-      </c>
-      <c r="AX13" s="3"/>
+        <v>141866.38</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>164565</v>
+      </c>
       <c r="AY13" s="3"/>
-      <c r="AZ13" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="BC13" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="BD13" s="4">
-        <v>44817</v>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BD13" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="BE13" s="4">
-        <v>44834</v>
-      </c>
-      <c r="BF13" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3">
+        <v>44897</v>
+      </c>
+      <c r="BF13" s="4">
+        <v>44914</v>
+      </c>
+      <c r="BG13" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3">
         <v>6</v>
       </c>
-      <c r="BI13" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="BJ13" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="BK13" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="BK13" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="BL13" s="3"/>
       <c r="BM13" s="3"/>
       <c r="BN13" s="3"/>
@@ -4423,22 +3831,23 @@
       <c r="BU13" s="3"/>
       <c r="BV13" s="3"/>
       <c r="BW13" s="3"/>
-      <c r="BX13" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="BY13" s="6">
-        <v>44844</v>
-      </c>
-      <c r="BZ13" s="6">
-        <v>44844</v>
-      </c>
-      <c r="CA13" s="9" t="s">
-        <v>349</v>
+      <c r="BX13" s="3"/>
+      <c r="BY13" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="BZ13" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CA13" s="4">
+        <v>44936</v>
+      </c>
+      <c r="CB13" s="6" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:CA6"/>
+    <mergeCell ref="A6:CB6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4446,53 +3855,56 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W13">
-      <formula1>Hidden_322</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AA8:AA13">
-      <formula1>Hidden_426</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AH8:AH13">
-      <formula1>Hidden_533</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BI8:BI13">
-      <formula1>Hidden_660</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BP8:BP13">
-      <formula1>Hidden_767</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D13">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D78">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E78">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8:BQ13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F78">
+      <formula1>Hidden_35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X78">
+      <formula1>Hidden_423</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8:AB78">
+      <formula1>Hidden_527</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8:AI78">
+      <formula1>Hidden_634</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8:BJ78">
+      <formula1>Hidden_761</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8:BQ78">
       <formula1>Hidden_868</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR78">
+      <formula1>Hidden_969</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1"/>
-    <hyperlink ref="H9" r:id="rId2"/>
-    <hyperlink ref="H10" r:id="rId3"/>
-    <hyperlink ref="H11" r:id="rId4"/>
-    <hyperlink ref="H12" r:id="rId5"/>
-    <hyperlink ref="H13" r:id="rId6"/>
-    <hyperlink ref="O8" r:id="rId7"/>
-    <hyperlink ref="O9" r:id="rId8"/>
-    <hyperlink ref="P8" r:id="rId9"/>
-    <hyperlink ref="P9" r:id="rId10"/>
-    <hyperlink ref="P10" r:id="rId11"/>
-    <hyperlink ref="P11" r:id="rId12"/>
-    <hyperlink ref="P12" r:id="rId13"/>
-    <hyperlink ref="P13" r:id="rId14"/>
-    <hyperlink ref="BF8" r:id="rId15"/>
-    <hyperlink ref="BF9" r:id="rId16"/>
-    <hyperlink ref="BF10" r:id="rId17"/>
-    <hyperlink ref="BF11" r:id="rId18"/>
-    <hyperlink ref="BF12" r:id="rId19"/>
-    <hyperlink ref="BF13" r:id="rId20"/>
+    <hyperlink ref="I8" r:id="rId1"/>
+    <hyperlink ref="I9" r:id="rId2"/>
+    <hyperlink ref="I10" r:id="rId3"/>
+    <hyperlink ref="I11" r:id="rId4"/>
+    <hyperlink ref="I12" r:id="rId5"/>
+    <hyperlink ref="I13" r:id="rId6"/>
+    <hyperlink ref="Q13" r:id="rId7"/>
+    <hyperlink ref="P13" r:id="rId8"/>
+    <hyperlink ref="Q12" r:id="rId9"/>
+    <hyperlink ref="Q11" r:id="rId10"/>
+    <hyperlink ref="Q10" r:id="rId11"/>
+    <hyperlink ref="Q9" r:id="rId12"/>
+    <hyperlink ref="P8" r:id="rId13"/>
+    <hyperlink ref="Q8" r:id="rId14"/>
+    <hyperlink ref="BG8" r:id="rId15"/>
+    <hyperlink ref="BG9" r:id="rId16"/>
+    <hyperlink ref="BG10" r:id="rId17"/>
+    <hyperlink ref="BG11" r:id="rId18"/>
+    <hyperlink ref="BG12" r:id="rId19"/>
+    <hyperlink ref="BG13" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4500,156 +3912,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>290</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4659,20 +3935,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
-    <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4694,33 +3970,33 @@
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" t="s">
         <v>295</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" s="1" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>300</v>
@@ -4729,86 +4005,44 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>340</v>
+      <c r="B4" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>375</v>
+      <c r="B5" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4821,13 +4055,128 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
@@ -4853,73 +4202,39 @@
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4927,12 +4242,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FUT8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4942,8 +4257,7 @@
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.5703125" customWidth="1"/>
-    <col min="7" max="4622" width="9.140625" style="11"/>
+    <col min="6" max="6" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4965,129 +4279,139 @@
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>338</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>421</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>342</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>346</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>350</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>354</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5095,12 +4419,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5116,15 +4440,15 @@
     </row>
     <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5132,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>217001</v>
+        <v>569001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5140,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>214001</v>
+        <v>331002</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>211001</v>
+        <v>246002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5156,7 +4480,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>214001</v>
+        <v>255001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5164,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>253001</v>
+        <v>254001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5172,7 +4496,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>216001</v>
+        <v>294001</v>
       </c>
     </row>
   </sheetData>
@@ -5180,13 +4504,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5213,33 +4535,33 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5257,17 +4579,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5276,6 +4598,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -5285,12 +4645,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5298,7 +4658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
@@ -5308,132 +4668,132 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5441,7 +4801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
@@ -5451,207 +4811,207 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
@@ -5669,190 +5029,162 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5870,17 +5202,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5890,7 +5222,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5898,12 +5230,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f28_aUPPachuca.xlsx
+++ b/xlsx/a69_f28_aUPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,12 @@
     <definedName name="Hidden_868">Hidden_8!$A$1:$A$3</definedName>
     <definedName name="Hidden_969">Hidden_9!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="392">
   <si>
     <t>52273</t>
   </si>
@@ -1056,40 +1056,46 @@
     <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
   </si>
   <si>
-    <t>Marco Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flores </t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Rector</t>
-  </si>
-  <si>
-    <t>Jorge Alfredo</t>
-  </si>
-  <si>
-    <t>Fernandez</t>
-  </si>
-  <si>
-    <t>Salas</t>
-  </si>
-  <si>
-    <t>Secretario Saministrativo</t>
+    <t>LPN-ESTATAL-01-2023</t>
+  </si>
+  <si>
+    <t>Adquisición de vales de combustibles y lubricantes y equipos terrestres</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Marroquin</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Rayon</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Mireles</t>
   </si>
   <si>
     <t>Josue Roman</t>
   </si>
   <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Mireles</t>
-  </si>
-  <si>
-    <t>Secretario Academico</t>
+    <t>Juan Manuel</t>
+  </si>
+  <si>
+    <t>Montes</t>
+  </si>
+  <si>
+    <t>Monroy</t>
   </si>
   <si>
     <t>Donaciano</t>
@@ -1101,229 +1107,121 @@
     <t>Calva</t>
   </si>
   <si>
-    <t>Jefe del Departamento de adquisiciones</t>
-  </si>
-  <si>
-    <t>David</t>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Barrios</t>
+  </si>
+  <si>
+    <t>Cravioto</t>
   </si>
   <si>
     <t>Luna</t>
   </si>
   <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Jefe del departamento de tecnologias de la informacion y comunicaciones</t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-06-2022</t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-07-2022</t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-08-2022</t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-09-2022</t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-10-2022</t>
-  </si>
-  <si>
-    <t>IA-ESTATAL-11-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se hizo con una persona fisica, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
-  </si>
-  <si>
-    <t>Adquisicion de otros equipos</t>
-  </si>
-  <si>
-    <t>Gonzalo</t>
+    <t xml:space="preserve">Luis Sergio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roldan </t>
   </si>
   <si>
     <t>Olvera</t>
   </si>
   <si>
-    <t>Diaz</t>
-  </si>
-  <si>
-    <t>Gonzalo Olvera Diaz</t>
-  </si>
-  <si>
-    <t>OEDG800726HX4</t>
-  </si>
-  <si>
-    <t>San Beda</t>
-  </si>
-  <si>
-    <t>Paseo de las Reynas</t>
-  </si>
-  <si>
-    <t>Mineral de la reforma</t>
-  </si>
-  <si>
-    <t>Resulta solvente la propuesta presentada ya que cumple con los requisitos legales, tecnicos y economicos establecidos en la convocatoria a la licitacion publica y porlo tanto garantiza el cumplimiento de las obligaciones respectivas.</t>
-  </si>
-  <si>
-    <t>varias areas</t>
+    <t>Servicios Broxel, SAPI de CV</t>
+  </si>
+  <si>
+    <t>SBR130327HU9</t>
+  </si>
+  <si>
+    <t>Presidente del Comité de adquisiciones, arrendamientos y servicios</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>Secretario ejecutivo</t>
+  </si>
+  <si>
+    <t>vocal</t>
+  </si>
+  <si>
+    <t>asesor</t>
+  </si>
+  <si>
+    <t>Mario Pani</t>
+  </si>
+  <si>
+    <t>piso 1</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>Cuajimalpa</t>
+  </si>
+  <si>
+    <t>Cuajimalpa de Morelos</t>
+  </si>
+  <si>
+    <t>Cumple con los requisitos legales, tecnicos y economicos estabecidos en las bases solicitados en la convocatoria a la licitación LPN-ESTATAL-01-2023</t>
   </si>
   <si>
     <t>Secretaria Administrativa</t>
   </si>
   <si>
-    <t>Departamento de Adquisiciones, bienes y servicios</t>
-  </si>
-  <si>
-    <t>22-64</t>
-  </si>
-  <si>
-    <t>pesos</t>
-  </si>
-  <si>
-    <t>Transferencia</t>
-  </si>
-  <si>
-    <t>Adquisicion de otros equipos para la universidad</t>
-  </si>
-  <si>
-    <t>Ingresos Propios</t>
-  </si>
-  <si>
-    <t>Adquisicion de contratacion del servicio de contabilidad, auditoria y servicios reacionados</t>
-  </si>
-  <si>
-    <t>Juana Judith</t>
-  </si>
-  <si>
-    <t>Gerrero</t>
-  </si>
-  <si>
-    <t>Tello</t>
-  </si>
-  <si>
-    <t>Juana judith Guerrero Tello</t>
-  </si>
-  <si>
-    <t>GUTJ820624GT6</t>
-  </si>
-  <si>
-    <t>Manuel Tolsa</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t>Pachuca de Soto</t>
-  </si>
-  <si>
-    <t>Fizcalizacion</t>
-  </si>
-  <si>
-    <t>22-61</t>
-  </si>
-  <si>
-    <t>Adquisicion de material electronico</t>
-  </si>
-  <si>
-    <t>22-68</t>
-  </si>
-  <si>
-    <t>Adquisicion de materiales y suministros medicos</t>
-  </si>
-  <si>
-    <t>22-69</t>
-  </si>
-  <si>
-    <t>Adquisicion de materiales y suministros de laboratorio</t>
-  </si>
-  <si>
-    <t>22-70</t>
-  </si>
-  <si>
-    <t>Adquisicion de refacciones y accesorios menores de equipo de computo</t>
-  </si>
-  <si>
-    <t>Adquisicion de refacciones y accesorios menores deequipo de computo</t>
-  </si>
-  <si>
-    <t>22-65</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-06-2022/IA-ESTATAL-06-2022-BASES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA%20ESTATAL-07-2022/IA-ESTATAL-07-2022-BASES.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-08-202/IA-ESTATAL-08-2022-BASES-MATERIAL_ELECTRONICO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-09-2022/IA-ESTATAL-09-2022-BASES_MATERIALES_Y_SUMINISTROS_DE_LABORATORIO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-10-2022/IA-ESTATAL-10-2022-BASES_MATERIALES_Y_SUMINISTROS_MEDICOSb.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-11-2022/IA-ESTATAL-11-2022-BASES_REFACCIONES_Y_ACCESORIOS_2.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-11-2022/IA-ESTATAL-11-2022-Apertura.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-11-2022/IA-ESTATAL-11-2022-FALLO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-10-2022/IA-ESTATAL-10-2022-Apertura.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-09-2022/IA-ESTATAL-09-2022-Apertura.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-08-202/IA-ESTATAL-08-2022-Apertura.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA%20ESTATAL-07-2022/IA-ESTATAL-07-2022-Apertura.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-06-2022/IA-ESTATAL-06-2022-Fallo.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-06-2022/IA-ESTATAL-06-2022-Apertura.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-06-2022/22-64%20IA-ESTATAL-06-2022%20GONZALO%20OLVERA%20DIAZ.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA%20ESTATAL-07-2022/22-61%20IA-ESTATAL%2007-2022%20JUANA%20JUDITH%20GUERRERO%20TELLO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-08-202/22-68%20IA-ESTATAL-08%202022%20GONZALO%20OLVERA%20DIAZ%20ELECTRONICO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-09-2022/22-69%20IA-ESTATAL-09-2022%20GONZALO%20OLVERA%20DIAZ%20SUMINISTROS%20DE%20LABORATORIO.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-10-2022/22-70%20IA-ESTATAL-10-2022%20GONZALO%20OLVERA%20DIAZ%20SUMINISTROS%20MEDICOS.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/28a/IA-ESTATAL-11-2022/22-65%20IA-ESTATAL-11-2022%20GONZALO%20OLVERA%20DIAZ.pdf</t>
-  </si>
-  <si>
-    <t>FOGM680705G2A</t>
-  </si>
-  <si>
-    <t>FESJ5710208Y5</t>
+    <t>Departamento de adquisicion de bienes y servicios</t>
+  </si>
+  <si>
+    <t>23-07</t>
+  </si>
+  <si>
+    <t>Pesos</t>
+  </si>
+  <si>
+    <t>Transferencia bancaria</t>
+  </si>
+  <si>
+    <t>Adquisicion de bales de combustible y lubricantes para equipos terrestres</t>
+  </si>
+  <si>
+    <t>Ingresos propios</t>
+  </si>
+  <si>
+    <t>MAGF730324L25</t>
+  </si>
+  <si>
+    <t>GARC5411049M2</t>
   </si>
   <si>
     <t>MAMJ8208266N6</t>
   </si>
   <si>
+    <t>MOMJ6604298C5</t>
+  </si>
+  <si>
     <t>MOCD6005248Q9</t>
   </si>
   <si>
-    <t>LUCD81118GM4</t>
+    <t>JIBS760418AW2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona Moral, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/28_a/BASES_LPN_ESTATAL_01_2023_COMBUSTIBLES_Y_LUBRICANTES_UPP_2023.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/28_a/Acta_de_fallo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/28_a/Apertura_de_Proposiciones_LPN-E-01-2023.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/28_a/23-07%20LPN%20-ESTATAL-01-2023%20%20CONTRATO%20VALES%20DE%20COMBUSTIBLE.PDF</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1445,7 +1343,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,39 +1392,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1555,7 +1459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1599,175 +1503,151 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB13"/>
+  <dimension ref="A1:CB8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,16 +1660,16 @@
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81" customWidth="1"/>
+    <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="81.85546875" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="112.85546875" customWidth="1"/>
+    <col min="17" max="17" width="95.5703125" customWidth="1"/>
+    <col min="18" max="18" width="59.28515625" customWidth="1"/>
     <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="38.5703125" bestFit="1" customWidth="1"/>
@@ -1813,8 +1693,8 @@
     <col min="39" max="39" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="28.85546875" customWidth="1"/>
+    <col min="42" max="42" width="27" customWidth="1"/>
+    <col min="43" max="43" width="27.7109375" customWidth="1"/>
     <col min="44" max="44" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -1826,11 +1706,11 @@
     <col min="52" max="52" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.5703125" customWidth="1"/>
-    <col min="56" max="56" width="21.42578125" customWidth="1"/>
+    <col min="55" max="55" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="79.5703125" customWidth="1"/>
+    <col min="59" max="59" width="90.5703125" customWidth="1"/>
     <col min="60" max="60" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="46" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="36.140625" bestFit="1" customWidth="1"/>
@@ -1851,7 +1731,7 @@
     <col min="77" max="77" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="20" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="46.28515625" customWidth="1"/>
+    <col min="80" max="80" width="63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
@@ -1860,38 +1740,38 @@
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:80" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:80" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2378,88 +2258,88 @@
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="10"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="10"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10"/>
-      <c r="BO6" s="10"/>
-      <c r="BP6" s="10"/>
-      <c r="BQ6" s="10"/>
-      <c r="BR6" s="10"/>
-      <c r="BS6" s="10"/>
-      <c r="BT6" s="10"/>
-      <c r="BU6" s="10"/>
-      <c r="BV6" s="10"/>
-      <c r="BW6" s="10"/>
-      <c r="BX6" s="10"/>
-      <c r="BY6" s="10"/>
-      <c r="BZ6" s="10"/>
-      <c r="CA6" s="10"/>
-      <c r="CB6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
     </row>
     <row r="7" spans="1:80" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2703,18 +2583,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:80" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>178</v>
+        <v>45016</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>182</v>
@@ -2726,57 +2606,57 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>401</v>
+        <v>336</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>388</v>
       </c>
       <c r="J8" s="4">
-        <v>44883</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>363</v>
+        <v>44991</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="4">
+        <v>44994</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
       <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>414</v>
+      <c r="P8" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>390</v>
       </c>
       <c r="R8" s="3"/>
-      <c r="S8" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>366</v>
-      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="W8" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA8" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="Z8" s="3">
-        <v>465</v>
-      </c>
-      <c r="AA8" s="3"/>
       <c r="AB8" s="3" t="s">
         <v>218</v>
       </c>
@@ -2784,59 +2664,59 @@
         <v>370</v>
       </c>
       <c r="AD8" s="3">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AE8" s="3" t="s">
         <v>371</v>
       </c>
       <c r="AF8" s="3">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH8" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AJ8" s="3">
-        <v>42184</v>
+        <v>5348</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
         <v>374</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>375</v>
       </c>
       <c r="AR8" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="AS8" s="3" t="s">
+      <c r="AS8" s="8" t="s">
         <v>376</v>
       </c>
       <c r="AT8" s="4">
-        <v>44897</v>
+        <v>45006</v>
       </c>
       <c r="AU8" s="4">
-        <v>44897</v>
+        <v>45006</v>
       </c>
       <c r="AV8" s="4">
-        <v>44914</v>
+        <v>45291</v>
       </c>
       <c r="AW8" s="3">
-        <v>123767</v>
+        <v>332758.62</v>
       </c>
       <c r="AX8" s="3">
-        <v>143569.72</v>
+        <v>386000</v>
       </c>
       <c r="AY8" s="3"/>
       <c r="AZ8" s="3"/>
@@ -2844,20 +2724,20 @@
         <v>377</v>
       </c>
       <c r="BB8" s="3"/>
-      <c r="BC8" s="3" t="s">
+      <c r="BC8" s="7" t="s">
         <v>378</v>
       </c>
       <c r="BD8" s="7" t="s">
         <v>379</v>
       </c>
       <c r="BE8" s="4">
-        <v>44897</v>
+        <v>45006</v>
       </c>
       <c r="BF8" s="4">
-        <v>44914</v>
-      </c>
-      <c r="BG8" s="8" t="s">
-        <v>415</v>
+        <v>45291</v>
+      </c>
+      <c r="BG8" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="BH8" s="3"/>
       <c r="BI8" s="3">
@@ -2886,963 +2766,13 @@
         <v>335</v>
       </c>
       <c r="BZ8" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="CA8" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="CB8" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:80" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="J9" s="4">
-        <v>44883</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3">
-        <v>2</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y9" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>103</v>
-      </c>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>48</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>48</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>13</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>42000</v>
-      </c>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AR9" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS9" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="AT9" s="4">
-        <v>44896</v>
-      </c>
-      <c r="AU9" s="4">
-        <v>44896</v>
-      </c>
-      <c r="AV9" s="4">
-        <v>45000</v>
-      </c>
-      <c r="AW9" s="3">
-        <v>128017.24</v>
-      </c>
-      <c r="AX9" s="3">
-        <v>148500</v>
-      </c>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BD9" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="BE9" s="4">
-        <v>44896</v>
-      </c>
-      <c r="BF9" s="4">
-        <v>45000</v>
-      </c>
-      <c r="BG9" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3">
-        <v>2</v>
-      </c>
-      <c r="BJ9" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK9" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BL9" s="3"/>
-      <c r="BM9" s="3"/>
-      <c r="BN9" s="3"/>
-      <c r="BO9" s="3"/>
-      <c r="BP9" s="3"/>
-      <c r="BQ9" s="3"/>
-      <c r="BR9" s="3"/>
-      <c r="BS9" s="3"/>
-      <c r="BT9" s="3"/>
-      <c r="BU9" s="3"/>
-      <c r="BV9" s="3"/>
-      <c r="BW9" s="3"/>
-      <c r="BX9" s="3"/>
-      <c r="BY9" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="BZ9" s="4">
-        <v>44936</v>
-      </c>
-      <c r="CA9" s="4">
-        <v>44936</v>
-      </c>
-      <c r="CB9" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:80" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="J10" s="4">
-        <v>44882</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
-        <v>3</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>465</v>
-      </c>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>51</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>51</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>13</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>42184</v>
-      </c>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP10" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AQ10" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AR10" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS10" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="AT10" s="4">
-        <v>44901</v>
-      </c>
-      <c r="AU10" s="4">
-        <v>44901</v>
-      </c>
-      <c r="AV10" s="4">
-        <v>44922</v>
-      </c>
-      <c r="AW10" s="3">
-        <v>80305.56</v>
-      </c>
-      <c r="AX10" s="3">
-        <v>93154.45</v>
-      </c>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BD10" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="BE10" s="4">
-        <v>44901</v>
-      </c>
-      <c r="BF10" s="4">
-        <v>44922</v>
-      </c>
-      <c r="BG10" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3">
-        <v>3</v>
-      </c>
-      <c r="BJ10" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK10" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
-      <c r="BP10" s="3"/>
-      <c r="BQ10" s="3"/>
-      <c r="BR10" s="3"/>
-      <c r="BS10" s="3"/>
-      <c r="BT10" s="3"/>
-      <c r="BU10" s="3"/>
-      <c r="BV10" s="3"/>
-      <c r="BW10" s="3"/>
-      <c r="BX10" s="3"/>
-      <c r="BY10" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="BZ10" s="4">
-        <v>44936</v>
-      </c>
-      <c r="CA10" s="4">
-        <v>44936</v>
-      </c>
-      <c r="CB10" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:80" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="J11" s="4">
-        <v>44882</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <v>4</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>465</v>
-      </c>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>51</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>51</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>13</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>42184</v>
-      </c>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP11" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AR11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS11" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="AT11" s="4">
-        <v>44901</v>
-      </c>
-      <c r="AU11" s="4">
-        <v>44901</v>
-      </c>
-      <c r="AV11" s="4">
-        <v>44922</v>
-      </c>
-      <c r="AW11" s="3">
-        <v>108903.87</v>
-      </c>
-      <c r="AX11" s="3">
-        <v>126328.49</v>
-      </c>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BD11" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="BE11" s="4">
-        <v>44901</v>
-      </c>
-      <c r="BF11" s="4">
-        <v>44922</v>
-      </c>
-      <c r="BG11" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3">
-        <v>4</v>
-      </c>
-      <c r="BJ11" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK11" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BL11" s="3"/>
-      <c r="BM11" s="3"/>
-      <c r="BN11" s="3"/>
-      <c r="BO11" s="3"/>
-      <c r="BP11" s="3"/>
-      <c r="BQ11" s="3"/>
-      <c r="BR11" s="3"/>
-      <c r="BS11" s="3"/>
-      <c r="BT11" s="3"/>
-      <c r="BU11" s="3"/>
-      <c r="BV11" s="3"/>
-      <c r="BW11" s="3"/>
-      <c r="BX11" s="3"/>
-      <c r="BY11" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="BZ11" s="4">
-        <v>44936</v>
-      </c>
-      <c r="CA11" s="4">
-        <v>44936</v>
-      </c>
-      <c r="CB11" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:80" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="J12" s="4">
-        <v>44912</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
-        <v>5</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>465</v>
-      </c>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>51</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>51</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>13</v>
-      </c>
-      <c r="AI12" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>42184</v>
-      </c>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP12" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AR12" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS12" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="AT12" s="4">
-        <v>44901</v>
-      </c>
-      <c r="AU12" s="4">
-        <v>44901</v>
-      </c>
-      <c r="AV12" s="4">
-        <v>44922</v>
-      </c>
-      <c r="AW12" s="3">
-        <v>87934.11</v>
-      </c>
-      <c r="AX12" s="3">
-        <v>102003.57</v>
-      </c>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BD12" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="BE12" s="4">
-        <v>44901</v>
-      </c>
-      <c r="BF12" s="4">
-        <v>44922</v>
-      </c>
-      <c r="BG12" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3">
-        <v>5</v>
-      </c>
-      <c r="BJ12" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK12" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
-      <c r="BT12" s="3"/>
-      <c r="BU12" s="3"/>
-      <c r="BV12" s="3"/>
-      <c r="BW12" s="3"/>
-      <c r="BX12" s="3"/>
-      <c r="BY12" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="BZ12" s="4">
-        <v>44936</v>
-      </c>
-      <c r="CA12" s="4">
-        <v>44936</v>
-      </c>
-      <c r="CB12" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:80" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="J13" s="4">
-        <v>44913</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>465</v>
-      </c>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>51</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>51</v>
-      </c>
-      <c r="AG13" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>13</v>
-      </c>
-      <c r="AI13" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>42184</v>
-      </c>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP13" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AQ13" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AR13" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS13" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="AT13" s="4">
-        <v>44897</v>
-      </c>
-      <c r="AU13" s="4">
-        <v>44897</v>
-      </c>
-      <c r="AV13" s="4">
-        <v>44911</v>
-      </c>
-      <c r="AW13" s="3">
-        <v>141866.38</v>
-      </c>
-      <c r="AX13" s="3">
-        <v>164565</v>
-      </c>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BD13" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="BE13" s="4">
-        <v>44897</v>
-      </c>
-      <c r="BF13" s="4">
-        <v>44914</v>
-      </c>
-      <c r="BG13" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3">
-        <v>6</v>
-      </c>
-      <c r="BJ13" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK13" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
-      <c r="BV13" s="3"/>
-      <c r="BW13" s="3"/>
-      <c r="BX13" s="3"/>
-      <c r="BY13" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="BZ13" s="4">
-        <v>44936</v>
-      </c>
-      <c r="CA13" s="4">
-        <v>44936</v>
-      </c>
-      <c r="CB13" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3856,57 +2786,42 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D78">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E78">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E201">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F78">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
       <formula1>Hidden_35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X78">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X201">
       <formula1>Hidden_423</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8:AB78">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8:AB201">
       <formula1>Hidden_527</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8:AI78">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8:AI201">
       <formula1>Hidden_634</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8:BJ78">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8:BJ201">
       <formula1>Hidden_761</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8:BQ78">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8:BQ201">
       <formula1>Hidden_868</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR78">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR201">
       <formula1>Hidden_969</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1"/>
-    <hyperlink ref="I9" r:id="rId2"/>
-    <hyperlink ref="I10" r:id="rId3"/>
-    <hyperlink ref="I11" r:id="rId4"/>
-    <hyperlink ref="I12" r:id="rId5"/>
-    <hyperlink ref="I13" r:id="rId6"/>
-    <hyperlink ref="Q13" r:id="rId7"/>
-    <hyperlink ref="P13" r:id="rId8"/>
-    <hyperlink ref="Q12" r:id="rId9"/>
-    <hyperlink ref="Q11" r:id="rId10"/>
-    <hyperlink ref="Q10" r:id="rId11"/>
-    <hyperlink ref="Q9" r:id="rId12"/>
-    <hyperlink ref="P8" r:id="rId13"/>
-    <hyperlink ref="Q8" r:id="rId14"/>
-    <hyperlink ref="BG8" r:id="rId15"/>
-    <hyperlink ref="BG9" r:id="rId16"/>
-    <hyperlink ref="BG10" r:id="rId17"/>
-    <hyperlink ref="BG11" r:id="rId18"/>
-    <hyperlink ref="BG12" r:id="rId19"/>
-    <hyperlink ref="BG13" r:id="rId20"/>
+    <hyperlink ref="P8" r:id="rId2"/>
+    <hyperlink ref="Q8" r:id="rId3"/>
+    <hyperlink ref="BG8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3935,19 +2850,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4009,40 +2924,14 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>366</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4052,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4126,40 +3015,14 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>366</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4169,9 +3032,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4237,6 +3102,20 @@
         <v>314</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4244,10 +3123,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4257,7 +3136,7 @@
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4319,99 +3198,155 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>342</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>355</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4421,10 +3356,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E13:E14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4456,47 +3391,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>569001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>331002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>246002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>255001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>254001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>294001</v>
+        <v>261001</v>
       </c>
     </row>
   </sheetData>
@@ -4573,7 +3468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f28_aUPPachuca.xlsx
+++ b/xlsx/a69_f28_aUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Observaciones ITHAI\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C8E121A-E47B-4539-991A-8DFF9BD2F1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -17,30 +23,40 @@
     <sheet name="Hidden_7" sheetId="8" r:id="rId8"/>
     <sheet name="Hidden_8" sheetId="9" r:id="rId9"/>
     <sheet name="Hidden_9" sheetId="10" r:id="rId10"/>
-    <sheet name="Tabla_492838" sheetId="11" r:id="rId11"/>
-    <sheet name="Tabla_492867" sheetId="12" r:id="rId12"/>
-    <sheet name="Tabla_492868" sheetId="13" r:id="rId13"/>
-    <sheet name="Tabla_492869" sheetId="14" r:id="rId14"/>
-    <sheet name="Tabla_492870" sheetId="15" r:id="rId15"/>
-    <sheet name="Tabla_492871" sheetId="16" r:id="rId16"/>
+    <sheet name="Hidden_10" sheetId="11" r:id="rId11"/>
+    <sheet name="Tabla_492838" sheetId="12" r:id="rId12"/>
+    <sheet name="Hidden_1_Tabla_492838" sheetId="13" r:id="rId13"/>
+    <sheet name="Tabla_492867" sheetId="14" r:id="rId14"/>
+    <sheet name="Hidden_1_Tabla_492867" sheetId="15" r:id="rId15"/>
+    <sheet name="Tabla_492868" sheetId="16" r:id="rId16"/>
+    <sheet name="Hidden_1_Tabla_492868" sheetId="17" r:id="rId17"/>
+    <sheet name="Tabla_492869" sheetId="18" r:id="rId18"/>
+    <sheet name="Hidden_1_Tabla_492869" sheetId="19" r:id="rId19"/>
+    <sheet name="Tabla_492870" sheetId="20" r:id="rId20"/>
+    <sheet name="Tabla_492871" sheetId="21" r:id="rId21"/>
   </sheets>
   <definedNames>
+    <definedName name="Hidden_1_Tabla_4928385">Hidden_1_Tabla_492838!$A$1:$A$2</definedName>
+    <definedName name="Hidden_1_Tabla_4928675">Hidden_1_Tabla_492867!$A$1:$A$2</definedName>
+    <definedName name="Hidden_1_Tabla_4928685">Hidden_1_Tabla_492868!$A$1:$A$2</definedName>
+    <definedName name="Hidden_1_Tabla_4928694">Hidden_1_Tabla_492869!$A$1:$A$2</definedName>
+    <definedName name="Hidden_1070">Hidden_10!$A$1:$A$2</definedName>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$3</definedName>
     <definedName name="Hidden_24">Hidden_2!$A$1:$A$5</definedName>
     <definedName name="Hidden_35">Hidden_3!$A$1:$A$2</definedName>
-    <definedName name="Hidden_423">Hidden_4!$A$1:$A$26</definedName>
-    <definedName name="Hidden_527">Hidden_5!$A$1:$A$41</definedName>
-    <definedName name="Hidden_634">Hidden_6!$A$1:$A$32</definedName>
-    <definedName name="Hidden_761">Hidden_7!$A$1:$A$3</definedName>
-    <definedName name="Hidden_868">Hidden_8!$A$1:$A$3</definedName>
-    <definedName name="Hidden_969">Hidden_9!$A$1:$A$2</definedName>
+    <definedName name="Hidden_422">Hidden_4!$A$1:$A$2</definedName>
+    <definedName name="Hidden_524">Hidden_5!$A$1:$A$26</definedName>
+    <definedName name="Hidden_628">Hidden_6!$A$1:$A$41</definedName>
+    <definedName name="Hidden_735">Hidden_7!$A$1:$A$32</definedName>
+    <definedName name="Hidden_862">Hidden_8!$A$1:$A$3</definedName>
+    <definedName name="Hidden_969">Hidden_9!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="475">
   <si>
     <t>52273</t>
   </si>
@@ -154,6 +170,9 @@
   </si>
   <si>
     <t>492878</t>
+  </si>
+  <si>
+    <t>570812</t>
   </si>
   <si>
     <t>492885</t>
@@ -403,6 +422,9 @@
     <t>Razón social del contratista o proveedor</t>
   </si>
   <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
+  </si>
+  <si>
     <t xml:space="preserve">RFC de la persona física o moral contratista o proveedor </t>
   </si>
   <si>
@@ -609,6 +631,12 @@
     <t>Internacional</t>
   </si>
   <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
     <t>Carretera</t>
   </si>
   <si>
@@ -933,6 +961,9 @@
     <t>63247</t>
   </si>
   <si>
+    <t>77199</t>
+  </si>
+  <si>
     <t>63248</t>
   </si>
   <si>
@@ -966,6 +997,9 @@
     <t>63252</t>
   </si>
   <si>
+    <t>77205</t>
+  </si>
+  <si>
     <t>63253</t>
   </si>
   <si>
@@ -987,6 +1021,9 @@
     <t>63257</t>
   </si>
   <si>
+    <t>77189</t>
+  </si>
+  <si>
     <t>63258</t>
   </si>
   <si>
@@ -1002,6 +1039,9 @@
     <t>63261</t>
   </si>
   <si>
+    <t>77198</t>
+  </si>
+  <si>
     <t>63263</t>
   </si>
   <si>
@@ -1056,10 +1096,94 @@
     <t>Departamento de Adquisiciones de Bienes y Servicios (UPP)</t>
   </si>
   <si>
-    <t>LPN-ESTATAL-01-2023</t>
-  </si>
-  <si>
-    <t>Adquisición de vales de combustibles y lubricantes y equipos terrestres</t>
+    <t>LPN-ESTATAL-03-2023</t>
+  </si>
+  <si>
+    <t>LPN-ESTATAL-02-2023</t>
+  </si>
+  <si>
+    <t>LPN-ESTATAL-04-2023</t>
+  </si>
+  <si>
+    <t>Adquisición de material de limpieza</t>
+  </si>
+  <si>
+    <t>Servicio de Apoyo administrativo, tarducción, fotocopiado e impresión</t>
+  </si>
+  <si>
+    <t>Telecomunicaciones Autonomas Sin Limite, S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>TAS140314DI1</t>
+  </si>
+  <si>
+    <t>juarez</t>
+  </si>
+  <si>
+    <t>Piso 22</t>
+  </si>
+  <si>
+    <t>Oficina 2201-1</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>Resulta solvente, la proposición presentada por el licitante Telecomunicaciones Autónomas Sin Limite S.A. de C.V., ya que el costo-beneficio de la propuesta técnico-económica de este proveedor establece que las tarifas de tráfico excedente, las otorga sin costo, representando un mayor beneficio para la Convocante, por lo que, cumple con los requisitos legales, técnicos y económicos establecidos en la Convocatoria a la Licitación Pública Nacional con Ingresos Propios No. LPN-ESTATAL-02-2023 y por lo tanto garantiza el cumplimiento de las obligaciones respectivas</t>
+  </si>
+  <si>
+    <t>Secretaría Administrativa</t>
+  </si>
+  <si>
+    <t>Departamentro de adquisición de biees y servicios</t>
+  </si>
+  <si>
+    <t>23-17</t>
+  </si>
+  <si>
+    <t>Pesos</t>
+  </si>
+  <si>
+    <t>Transferencia bancaria</t>
+  </si>
+  <si>
+    <t>Ingreso Propio</t>
+  </si>
+  <si>
+    <t>Resulta solvente la propuesta presentada por: José Luis Moedano Garnica,  porque cumple con los requisitos legales, técnicos y económicos establecidos en la Convocatoria a la Licitación Pública y por tanto garantiza el cumplimiento de las obligaciones respectivas</t>
+  </si>
+  <si>
+    <t>Departamentro de adquisición de bienes y servicios</t>
+  </si>
+  <si>
+    <t>Muliproductos de León, S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>MLE120516W7</t>
+  </si>
+  <si>
+    <t>Justino Fernandez</t>
+  </si>
+  <si>
+    <t>Rinconada del sur</t>
+  </si>
+  <si>
+    <t>Pachuca de Soto</t>
+  </si>
+  <si>
+    <t>Resulta solvente la propuesta presentada por: Multiproductos de León,  porque cumple con los requisitos legales, técnicos y económicos establecidos en la Convocatoria a la Licitación Pública y por tanto garantiza el cumplimiento de las obligaciones respectivas</t>
+  </si>
+  <si>
+    <t>Servicios escolares</t>
+  </si>
+  <si>
+    <t>Infraestructura</t>
+  </si>
+  <si>
+    <t>23-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona Moral, este contrato esta vigente  a partir del 24/04/2023 al 31/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
   </si>
   <si>
     <t>Francisco</t>
@@ -1071,22 +1195,34 @@
     <t>Gutierrez</t>
   </si>
   <si>
+    <t>MAGF730324L25</t>
+  </si>
+  <si>
+    <t>Presidente del Comité de adquisiciones, arrendamientos y servicios</t>
+  </si>
+  <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>Rayon</t>
-  </si>
-  <si>
     <t>Garcia</t>
   </si>
   <si>
+    <t>Secretario ejecutivo</t>
+  </si>
+  <si>
+    <t>Josue Roman</t>
+  </si>
+  <si>
     <t>Martinez</t>
   </si>
   <si>
     <t>Mireles</t>
   </si>
   <si>
-    <t>Josue Roman</t>
+    <t>MAMJ8208266N6</t>
+  </si>
+  <si>
+    <t>vocal</t>
   </si>
   <si>
     <t>Juan Manuel</t>
@@ -1098,13 +1234,7 @@
     <t>Monroy</t>
   </si>
   <si>
-    <t>Donaciano</t>
-  </si>
-  <si>
-    <t>Moreno</t>
-  </si>
-  <si>
-    <t>Calva</t>
+    <t>MOMJ6604298C5</t>
   </si>
   <si>
     <t>Salvador</t>
@@ -1116,6 +1246,12 @@
     <t>Barrios</t>
   </si>
   <si>
+    <t>JIBS760418AW2</t>
+  </si>
+  <si>
+    <t>asesor</t>
+  </si>
+  <si>
     <t>Cravioto</t>
   </si>
   <si>
@@ -1131,103 +1267,232 @@
     <t>Olvera</t>
   </si>
   <si>
-    <t>Servicios Broxel, SAPI de CV</t>
-  </si>
-  <si>
-    <t>SBR130327HU9</t>
-  </si>
-  <si>
-    <t>Presidente del Comité de adquisiciones, arrendamientos y servicios</t>
-  </si>
-  <si>
-    <t>Asesor</t>
-  </si>
-  <si>
-    <t>Secretario ejecutivo</t>
-  </si>
-  <si>
-    <t>vocal</t>
-  </si>
-  <si>
-    <t>asesor</t>
-  </si>
-  <si>
-    <t>Mario Pani</t>
-  </si>
-  <si>
-    <t>piso 1</t>
-  </si>
-  <si>
-    <t>Santa Fe</t>
-  </si>
-  <si>
-    <t>Cuajimalpa</t>
-  </si>
-  <si>
-    <t>Cuajimalpa de Morelos</t>
-  </si>
-  <si>
-    <t>Cumple con los requisitos legales, tecnicos y economicos estabecidos en las bases solicitados en la convocatoria a la licitación LPN-ESTATAL-01-2023</t>
-  </si>
-  <si>
-    <t>Secretaria Administrativa</t>
-  </si>
-  <si>
-    <t>Departamento de adquisicion de bienes y servicios</t>
-  </si>
-  <si>
-    <t>23-07</t>
-  </si>
-  <si>
-    <t>Pesos</t>
-  </si>
-  <si>
-    <t>Transferencia bancaria</t>
-  </si>
-  <si>
-    <t>Adquisicion de bales de combustible y lubricantes para equipos terrestres</t>
-  </si>
-  <si>
-    <t>Ingresos propios</t>
-  </si>
-  <si>
-    <t>MAGF730324L25</t>
-  </si>
-  <si>
-    <t>GARC5411049M2</t>
-  </si>
-  <si>
-    <t>MAMJ8208266N6</t>
-  </si>
-  <si>
-    <t>MOMJ6604298C5</t>
-  </si>
-  <si>
-    <t>MOCD6005248Q9</t>
-  </si>
-  <si>
-    <t>JIBS760418AW2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona Moral, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/28_a/BASES_LPN_ESTATAL_01_2023_COMBUSTIBLES_Y_LUBRICANTES_UPP_2023.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/28_a/Acta_de_fallo.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/28_a/Apertura_de_Proposiciones_LPN-E-01-2023.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/28_a/23-07%20LPN%20-ESTATAL-01-2023%20%20CONTRATO%20VALES%20DE%20COMBUSTIBLE.PDF</t>
+    <t xml:space="preserve">Miguel </t>
+  </si>
+  <si>
+    <t>Meneses</t>
+  </si>
+  <si>
+    <t>Renata</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osvaldo </t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Yeritza Guadalupe</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Asesor Solicitante</t>
+  </si>
+  <si>
+    <t>Asesor Oficialia amayor</t>
+  </si>
+  <si>
+    <t>MEGM850920UM3</t>
+  </si>
+  <si>
+    <t>CUCO850627DK2</t>
+  </si>
+  <si>
+    <t>JERY9804206V8</t>
+  </si>
+  <si>
+    <t>LUCD811118GM4</t>
+  </si>
+  <si>
+    <t>CALC</t>
+  </si>
+  <si>
+    <t>MECA6105078H5</t>
+  </si>
+  <si>
+    <t>ROOL</t>
+  </si>
+  <si>
+    <t>Compu Formas, S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>CR01010219Z8</t>
+  </si>
+  <si>
+    <t>829 Ote</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Albino Espinoza</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>23-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el periodo que se informa, la Universidad Politécnica de Pachuca,  como parte del sujeto obligado del Poder Ejecutivo,  No se cuenta con Partida de Obra Pública, e informa que la adjudicación se realizo con una persona Moral, este contrato esta vigente  a partir del 01/06/2023 al 07/12/2023, las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento. </t>
+  </si>
+  <si>
+    <t>Godinez</t>
+  </si>
+  <si>
+    <t>HEVAR811112</t>
+  </si>
+  <si>
+    <t>Lizbeth Mariana</t>
+  </si>
+  <si>
+    <t>del Valle</t>
+  </si>
+  <si>
+    <t>Benitez</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>Representante Presidente del Comité de adquisiciones, arrendamientos y servicios</t>
+  </si>
+  <si>
+    <t>Representante Secretario ejecutivo</t>
+  </si>
+  <si>
+    <t>de jesus</t>
+  </si>
+  <si>
+    <t>SADM</t>
+  </si>
+  <si>
+    <t>Representante asesor del Organo interno de contyrol UPP</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t>Marquez</t>
+  </si>
+  <si>
+    <t>vocal, Representante del Secretario Academico</t>
+  </si>
+  <si>
+    <t>Agustin</t>
+  </si>
+  <si>
+    <t>Mejia</t>
+  </si>
+  <si>
+    <t>Cesar Hugo</t>
+  </si>
+  <si>
+    <t>Doreantes</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>VABL8805212I0</t>
+  </si>
+  <si>
+    <t>DOCC750216BI1</t>
+  </si>
+  <si>
+    <t>GAMM7709031F4</t>
+  </si>
+  <si>
+    <t>asesor, Titular del organo interno de control UPP</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-02-2023/LPN-ESTATAL-02-2023_convocatoria.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-02-2023/JA-LPN-ESTATAL-02-2023.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-02-2023/AP-LPN-ESTATAL-02-2023.pdf</t>
+  </si>
+  <si>
+    <t>Contración del servicio telefonico tradicional e internet de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-02-2023/23-17%20TELECOMUNICACIONES%20AUTONOMAS%20SIN%20LIMITES%20LPN-ESTATAL-02-2023.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN%20ESTATAL-03-%202023/LPN-ESTATAL-03-2023_convocatoria.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN%20ESTATAL-03-%202023/JA-LPN-ESTATAL-03-2023.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN%20ESTATAL-03-%202023/AP-LPN-ESTATAL-03-2023.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN%20ESTATAL-03-%202023/23-25%20MULTIPRODUCTOS%20DE%20LEON.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-04-2023/CONVOCATORIA-LPN-ESTATAL-04-2023.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-04-2023/JA-LPN-ESTATAL-04-2023.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-04-2023/AP-LPN-ESTATAL-04-2023.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-04-2023/dt1-2652023102958-18601678196.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_28_a/LPN-ESTATAL-04-2023/23-33%20COMPU%20FORMAS%20SA%20DE%20CV.pdf</t>
+  </si>
+  <si>
+    <t>Carlos Arturo</t>
+  </si>
+  <si>
+    <t>Padilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulises </t>
+  </si>
+  <si>
+    <t>De Leon</t>
+  </si>
+  <si>
+    <t>Jose Alberto</t>
+  </si>
+  <si>
+    <t>Treviño</t>
+  </si>
+  <si>
+    <t>Siller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1251,10 +1516,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1283,7 +1547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1306,15 +1570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1334,30 +1589,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1392,39 +1645,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1457,6 +1710,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1492,6 +1762,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1503,151 +1790,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="P7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,86 +1971,87 @@
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="126.42578125" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="112.85546875" customWidth="1"/>
-    <col min="17" max="17" width="95.5703125" customWidth="1"/>
-    <col min="18" max="18" width="59.28515625" customWidth="1"/>
+    <col min="16" max="16" width="147.42578125" customWidth="1"/>
+    <col min="17" max="17" width="128.5703125" customWidth="1"/>
+    <col min="18" max="18" width="111.28515625" customWidth="1"/>
     <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="61" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="74.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="69" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="77.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="73" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="84" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="60" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="27" customWidth="1"/>
-    <col min="43" max="43" width="27.7109375" customWidth="1"/>
-    <col min="44" max="44" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="44" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="90.5703125" customWidth="1"/>
-    <col min="60" max="60" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="46" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="82" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="46" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="57" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="82" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="20" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="63" customWidth="1"/>
+    <col min="23" max="23" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="61" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="69" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="73" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="84" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="60" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="73" customWidth="1"/>
+    <col min="43" max="43" width="32.140625" customWidth="1"/>
+    <col min="44" max="44" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="44" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17" customWidth="1"/>
+    <col min="57" max="57" width="26.28515625" customWidth="1"/>
+    <col min="58" max="58" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="132.7109375" customWidth="1"/>
+    <col min="61" max="61" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="46" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="82" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="46" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="57" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="82" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="20" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1756,7 +2068,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:80" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +2085,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1841,13 +2153,13 @@
         <v>12</v>
       </c>
       <c r="W4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" t="s">
         <v>7</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>9</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>7</v>
       </c>
       <c r="Z4" t="s">
         <v>7</v>
@@ -1856,34 +2168,34 @@
         <v>7</v>
       </c>
       <c r="AB4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>12</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>7</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>12</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>7</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>12</v>
       </c>
       <c r="AL4" t="s">
         <v>12</v>
@@ -1907,10 +2219,10 @@
         <v>12</v>
       </c>
       <c r="AS4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT4" t="s">
         <v>7</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>8</v>
       </c>
       <c r="AU4" t="s">
         <v>8</v>
@@ -1919,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="AW4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AX4" t="s">
         <v>13</v>
@@ -1931,7 +2243,7 @@
         <v>13</v>
       </c>
       <c r="BA4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="s">
         <v>7</v>
@@ -1940,58 +2252,58 @@
         <v>7</v>
       </c>
       <c r="BD4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE4" t="s">
         <v>12</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>8</v>
       </c>
       <c r="BF4" t="s">
         <v>8</v>
       </c>
       <c r="BG4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BH4" t="s">
         <v>11</v>
       </c>
       <c r="BI4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ4" t="s">
         <v>10</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>9</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>7</v>
       </c>
       <c r="BL4" t="s">
         <v>7</v>
       </c>
       <c r="BM4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BN4" t="s">
         <v>12</v>
       </c>
       <c r="BO4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP4" t="s">
         <v>11</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>12</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>9</v>
       </c>
       <c r="BR4" t="s">
         <v>9</v>
       </c>
       <c r="BS4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT4" t="s">
         <v>10</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BU4" t="s">
         <v>12</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>11</v>
       </c>
       <c r="BV4" t="s">
         <v>11</v>
@@ -2003,19 +2315,22 @@
         <v>11</v>
       </c>
       <c r="BY4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ4" t="s">
         <v>12</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="CA4" t="s">
         <v>8</v>
       </c>
-      <c r="CA4" t="s">
+      <c r="CB4" t="s">
         <v>14</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CC4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2256,10 +2571,13 @@
       <c r="CB5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="CC5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -2340,288 +2658,292 @@
       <c r="BZ6" s="12"/>
       <c r="CA6" s="12"/>
       <c r="CB6" s="12"/>
-    </row>
-    <row r="7" spans="1:80" ht="39" x14ac:dyDescent="0.25">
+      <c r="CC6" s="12"/>
+    </row>
+    <row r="7" spans="1:81" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AZ7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BA7" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BC7" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BD7" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BG7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BH7" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BI7" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BJ7" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BK7" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BM7" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BN7" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BP7" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BQ7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BR7" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BS7" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BT7" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BU7" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BV7" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BW7" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BX7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BY7" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BZ7" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CA7" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CB7" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:80" ht="90" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="CC7" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="4">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="J8" s="4">
-        <v>44991</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>45019</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8" s="4">
-        <v>44994</v>
+        <v>45028</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -2630,154 +2952,551 @@
         <v>1</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3" t="s">
-        <v>361</v>
+      <c r="V8" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>362</v>
+        <v>189</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>400</v>
+        <v>216</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>218</v>
+        <v>353</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>4</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>9</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>5348</v>
-      </c>
-      <c r="AK8" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>114</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>114</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>21</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>72160</v>
+      </c>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="AP8" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ8" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="AR8" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS8" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="AT8" s="4">
-        <v>45006</v>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="AU8" s="4">
-        <v>45006</v>
+        <v>45040</v>
       </c>
       <c r="AV8" s="4">
+        <v>45047</v>
+      </c>
+      <c r="AW8" s="4">
         <v>45291</v>
       </c>
-      <c r="AW8" s="3">
-        <v>332758.62</v>
-      </c>
       <c r="AX8" s="3">
-        <v>386000</v>
-      </c>
-      <c r="AY8" s="3"/>
+        <v>422068.96</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>489600</v>
+      </c>
       <c r="AZ8" s="3"/>
-      <c r="BA8" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="BD8" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BE8" s="4">
-        <v>45006</v>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="BF8" s="4">
+        <v>45047</v>
+      </c>
+      <c r="BG8" s="4">
         <v>45291</v>
       </c>
-      <c r="BG8" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3">
+      <c r="BH8" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3">
         <v>1</v>
       </c>
-      <c r="BJ8" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="BK8" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BL8" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="BL8" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3"/>
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
       <c r="BQ8" s="3"/>
       <c r="BR8" s="3"/>
-      <c r="BS8" s="3"/>
+      <c r="BS8" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="BT8" s="3"/>
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
       <c r="BW8" s="3"/>
       <c r="BX8" s="3"/>
-      <c r="BY8" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="BZ8" s="4">
-        <v>45026</v>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="CA8" s="4">
-        <v>45026</v>
-      </c>
-      <c r="CB8" s="6" t="s">
-        <v>387</v>
+        <v>45117</v>
+      </c>
+      <c r="CB8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="CC8" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="J9" s="4">
+        <v>45019</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>45028</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>118</v>
+      </c>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>48</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>48</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>13</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>42083</v>
+      </c>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR9" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>45040</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>45040</v>
+      </c>
+      <c r="AW9" s="4">
+        <v>45291</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>281016.73</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>325979.40999999997</v>
+      </c>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="BE9" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="BF9" s="4">
+        <v>45040</v>
+      </c>
+      <c r="BG9" s="4">
+        <v>45291</v>
+      </c>
+      <c r="BH9" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3">
+        <v>2</v>
+      </c>
+      <c r="BK9" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="BL9" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="CA9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="CB9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="CC9" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J10" s="4">
+        <v>45061</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>45064</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>39</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>19</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>64000</v>
+      </c>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR10" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>45078</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>45078</v>
+      </c>
+      <c r="AW10" s="4">
+        <v>45267</v>
+      </c>
+      <c r="AX10" s="3">
+        <v>285300</v>
+      </c>
+      <c r="AY10" s="3">
+        <v>330948</v>
+      </c>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="BE10" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="BF10" s="4">
+        <v>45078</v>
+      </c>
+      <c r="BG10" s="4">
+        <v>45267</v>
+      </c>
+      <c r="BH10" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3">
+        <v>3</v>
+      </c>
+      <c r="BK10" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="BL10" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3"/>
+      <c r="BZ10" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="CA10" s="4">
+        <v>45117</v>
+      </c>
+      <c r="CB10" s="4">
+        <v>45117</v>
+      </c>
+      <c r="CC10" s="6" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:CB6"/>
+    <mergeCell ref="A6:CC6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2785,48 +3504,88 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F10" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X201">
-      <formula1>Hidden_423</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W10" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>Hidden_422</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB8:AB201">
-      <formula1>Hidden_527</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y10" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>Hidden_524</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI8:AI201">
-      <formula1>Hidden_634</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC8:AC10" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>Hidden_628</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BJ8:BJ201">
-      <formula1>Hidden_761</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AJ8:AJ10" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>Hidden_735</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BQ8:BQ201">
-      <formula1>Hidden_868</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BK8:BK10" xr:uid="{00000000-0002-0000-0000-000007000000}">
+      <formula1>Hidden_862</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BR8:BR10" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Hidden_969</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BS8:BS10" xr:uid="{00000000-0002-0000-0000-000009000000}">
+      <formula1>Hidden_1070</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1"/>
-    <hyperlink ref="P8" r:id="rId2"/>
-    <hyperlink ref="Q8" r:id="rId3"/>
-    <hyperlink ref="BG8" r:id="rId4"/>
+    <hyperlink ref="I9" r:id="rId1" xr:uid="{FECB2B4A-CBB6-4319-ABF5-BD2B60796DA3}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{F4319AD3-8475-41AA-BE2A-6675CD8B6C4D}"/>
+    <hyperlink ref="P8" r:id="rId3" xr:uid="{89615702-FFA0-4716-A109-E25A0C847444}"/>
+    <hyperlink ref="Q8" r:id="rId4" xr:uid="{944F612F-DA52-4789-B245-AD8B21678BFE}"/>
+    <hyperlink ref="BH8" r:id="rId5" xr:uid="{BEF3E129-9B3E-4152-9593-88C11DBB0446}"/>
+    <hyperlink ref="P9" r:id="rId6" xr:uid="{D9BE215E-A8CF-4374-9D1C-68AB004C0DBA}"/>
+    <hyperlink ref="Q9" r:id="rId7" xr:uid="{7D193B2B-C774-41FA-AD33-A85FB87BB573}"/>
+    <hyperlink ref="BH9" r:id="rId8" xr:uid="{CDA52BCB-A0CF-4447-9C52-F7B7064756CF}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{67B95607-30B9-4469-A0FB-3FE3EA8CB643}"/>
+    <hyperlink ref="P10" r:id="rId10" xr:uid="{F40F3DD1-5ADD-4E04-8147-2DF9BDD9F9B5}"/>
+    <hyperlink ref="Q10" r:id="rId11" xr:uid="{15F2B615-B35F-445B-87E3-00FB51AF1F67}"/>
+    <hyperlink ref="R10" r:id="rId12" xr:uid="{31043190-12E6-46F7-9044-3A197CBB5719}"/>
+    <hyperlink ref="BH10" r:id="rId13" xr:uid="{38469B2A-8E4F-4AF5-8F7F-1B68B506C752}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2835,12 +3594,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2848,9 +3607,193 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F114" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+      <formula1>Hidden_1_Tabla_4928385</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -2862,11 +3805,12 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -2880,58 +3824,150 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="G2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>362</v>
+      <c r="B4" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F132" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+      <formula1>Hidden_1_Tabla_4928675</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2939,12 +3975,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,11 +3989,12 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -2968,61 +4005,135 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>362</v>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F132" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+      <formula1>Hidden_1_Tabla_4928685</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3030,103 +4141,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3135,11 +4158,11 @@
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -3150,203 +4173,706 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>323</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>381</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>342</v>
+        <v>429</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>382</v>
+        <v>189</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>383</v>
+        <v>189</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>384</v>
+        <v>189</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>385</v>
+        <v>189</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>386</v>
+        <v>189</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>397</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>407</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="F11" s="3" t="s">
-        <v>364</v>
+        <v>417</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E122" xr:uid="{00000000-0002-0000-1100-000000000000}">
+      <formula1>Hidden_1_Tabla_4928694</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="37" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3354,12 +4880,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,15 +4929,15 @@
     </row>
     <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,7 +4945,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>261001</v>
+        <v>314001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>216001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>336001</v>
       </c>
     </row>
   </sheetData>
@@ -3399,11 +4969,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3430,63 +5002,33 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>179</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +5037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3504,27 +5046,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3533,7 +5075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3542,12 +5084,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +5098,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3565,132 +5130,132 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3698,8 +5263,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3708,207 +5273,207 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3916,8 +5481,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3926,162 +5491,162 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4089,8 +5654,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4099,45 +5664,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
